--- a/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
+++ b/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNL\MK\Tugas Akhir\TGA-Code\tga-rental-mobil\public\DatabaseRecovery\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A730EA-63CE-4091-A533-6F8148E53C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11BDC4-4B2A-474A-8CA2-9DB75D4657F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Akun" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A976FF88-3BA2-4D47-8A1E-61292A7499DC}">
   <dimension ref="E4:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D9F5-B1D6-48D1-930D-6DBF8F6F234E}">
   <dimension ref="C4:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A72435-518D-40D4-88A4-F9FACB9974C4}">
   <dimension ref="A1:P903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
+++ b/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNL\MK\Tugas Akhir\TGA-Code\tga-rental-mobil\public\DatabaseRecovery\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11BDC4-4B2A-474A-8CA2-9DB75D4657F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035A300-81C5-4A1F-95DF-5E13D1CB0C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
+    <workbookView xWindow="-7005" yWindow="0" windowWidth="15375" windowHeight="7995" firstSheet="2" activeTab="2" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Akun" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A976FF88-3BA2-4D47-8A1E-61292A7499DC}">
   <dimension ref="E4:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D9F5-B1D6-48D1-930D-6DBF8F6F234E}">
   <dimension ref="C4:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A72435-518D-40D4-88A4-F9FACB9974C4}">
   <dimension ref="A1:P903"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
+++ b/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNL\MK\Tugas Akhir\TGA-Code\tga-rental-mobil\public\DatabaseRecovery\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3FF33-D33E-4579-96B8-77170B947D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9FCAE-B92F-4042-812E-9ED35ADB3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Akun" sheetId="1" r:id="rId1"/>
     <sheet name="Toko" sheetId="3" r:id="rId2"/>
     <sheet name="Mobil" sheetId="2" r:id="rId3"/>
-    <sheet name="Dummy" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="ID_Dummy" sheetId="6" r:id="rId4"/>
+    <sheet name="DummyGroup" sheetId="7" r:id="rId5"/>
+    <sheet name="WhiteBox" sheetId="8" r:id="rId6"/>
+    <sheet name="BlakBok" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Baik">[1]Sheet3!$A$33</definedName>
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="554">
   <si>
     <t>Nama Pemilik</t>
   </si>
@@ -548,13 +550,1213 @@
   </si>
   <si>
     <t>1800cc</t>
+  </si>
+  <si>
+    <t>Case Perhitungan Sistem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kasus Pertama</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>data hasil filter</t>
+  </si>
+  <si>
+    <t>Hitung Manual</t>
+  </si>
+  <si>
+    <t>Normalisasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merk </t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Kondisi fisik</t>
+  </si>
+  <si>
+    <t>kondisi mesin</t>
+  </si>
+  <si>
+    <t>Seater</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>BBM</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>kurang baik</t>
+  </si>
+  <si>
+    <t>Rp. 400.000,00\hari</t>
+  </si>
+  <si>
+    <t>0.34119559696747</t>
+  </si>
+  <si>
+    <t>0.17960530202677</t>
+  </si>
+  <si>
+    <t>0.19611613513818</t>
+  </si>
+  <si>
+    <t>0.33333333333333</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>sangat baik</t>
+  </si>
+  <si>
+    <t>0.58834840541455</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>0.44355427605771</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>0.53881590608032</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>0.20471735818048</t>
+  </si>
+  <si>
+    <t>0.39223227027637</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>0.35921060405355</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>0.27295647757398</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>0.37531515666422</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>optimasi tahap 1</t>
+  </si>
+  <si>
+    <t>0.03411955969674702</t>
+  </si>
+  <si>
+    <t>0.026940795304016236</t>
+  </si>
+  <si>
+    <t>0.03922322702763681</t>
+  </si>
+  <si>
+    <t>0.049999999999999996</t>
+  </si>
+  <si>
+    <t>0.03333333333333333</t>
+  </si>
+  <si>
+    <t>0.06666666666666667</t>
+  </si>
+  <si>
+    <t>0.11766968108291043</t>
+  </si>
+  <si>
+    <t>0.04435542760577113</t>
+  </si>
+  <si>
+    <t>0.0808223859120487</t>
+  </si>
+  <si>
+    <t>0.020471735818048214</t>
+  </si>
+  <si>
+    <t>0.07844645405527362</t>
+  </si>
+  <si>
+    <t>0.05388159060803247</t>
+  </si>
+  <si>
+    <t>0.02729564775739762</t>
+  </si>
+  <si>
+    <t>0.037531515666421725</t>
+  </si>
+  <si>
+    <t>BOBOT</t>
+  </si>
+  <si>
+    <t>optimasi tahap 2</t>
+  </si>
+  <si>
+    <t>Perangkinga</t>
+  </si>
+  <si>
+    <t>ID Mobil</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Optimasi</t>
+  </si>
+  <si>
+    <t>Rangking</t>
+  </si>
+  <si>
+    <t>Nilai Akhir</t>
+  </si>
+  <si>
+    <t>0.2169502486950667</t>
+  </si>
+  <si>
+    <t>-0.06666666666666667</t>
+  </si>
+  <si>
+    <t>0.1502835820284</t>
+  </si>
+  <si>
+    <t>0.22974057578537</t>
+  </si>
+  <si>
+    <t>0.29539670275034036</t>
+  </si>
+  <si>
+    <t>0.22873003608367</t>
+  </si>
+  <si>
+    <t>0.22718611660409083</t>
+  </si>
+  <si>
+    <t>0.16051944993742</t>
+  </si>
+  <si>
+    <t>0.21985956032973</t>
+  </si>
+  <si>
+    <t>0.28106770721212326</t>
+  </si>
+  <si>
+    <t>0.21440104054546</t>
+  </si>
+  <si>
+    <t>0.2964072424520372</t>
+  </si>
+  <si>
+    <t>0.18268289711669</t>
+  </si>
+  <si>
+    <t>0.23024322012038415</t>
+  </si>
+  <si>
+    <t>0.16357655345372</t>
+  </si>
+  <si>
+    <t>0.21012633675571732</t>
+  </si>
+  <si>
+    <t>0.14345967008905</t>
+  </si>
+  <si>
+    <t>0.28652622699639446</t>
+  </si>
+  <si>
+    <t>0.2493495637833541</t>
+  </si>
+  <si>
+    <t>Optimasi tahap 1</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>hasil akhir</t>
+  </si>
+  <si>
+    <t>Fungsi yang diuji</t>
+  </si>
+  <si>
+    <t>Fungsi yang diharapkan</t>
+  </si>
+  <si>
+    <t>Respon sistem</t>
+  </si>
+  <si>
+    <t>Hasil pengujian</t>
+  </si>
+  <si>
+    <t>Halaman Home</t>
+  </si>
+  <si>
+    <t>Masuk home</t>
+  </si>
+  <si>
+    <t>menuju halaman home</t>
+  </si>
+  <si>
+    <t>menampilkan halaman home</t>
+  </si>
+  <si>
+    <t>sesuai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klik nama mobil </t>
+  </si>
+  <si>
+    <t>menuju halaman detail mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail mobil</t>
+  </si>
+  <si>
+    <t>klik tombol search</t>
+  </si>
+  <si>
+    <t>menuju halaman rekomendasi mobil dan proses mobil rekomendasi dengan moora</t>
+  </si>
+  <si>
+    <t>menampilkan halaman rekomendasi mobil dan hasil rekomendasi mobil</t>
+  </si>
+  <si>
+    <t>Halaman daftar mobil</t>
+  </si>
+  <si>
+    <t>Masuk halaman daftar mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman daftar mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman daftar mobil</t>
+  </si>
+  <si>
+    <t>klik nama usaha</t>
+  </si>
+  <si>
+    <t>menuju halaman detail toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail toko</t>
+  </si>
+  <si>
+    <t>klik tombol detail mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman daftar mobil dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman daftar mobil dan hasil pencarian</t>
+  </si>
+  <si>
+    <t>Halaman detail mobil</t>
+  </si>
+  <si>
+    <t>masuk halaman detail mobil</t>
+  </si>
+  <si>
+    <t>klik tombol cek lokasi toko</t>
+  </si>
+  <si>
+    <t>menuju halaman map</t>
+  </si>
+  <si>
+    <t>menampilkan halaman map</t>
+  </si>
+  <si>
+    <t>klik tombol telpon</t>
+  </si>
+  <si>
+    <t>mengirim nomor hp ke url</t>
+  </si>
+  <si>
+    <t>menerima nomor hp dan akan dikirimkan ke hp yang dikaitkan</t>
+  </si>
+  <si>
+    <t>gagal</t>
+  </si>
+  <si>
+    <t>klik tombol whatsapp</t>
+  </si>
+  <si>
+    <t>menuju halaman wa web dengan pesan tertulis</t>
+  </si>
+  <si>
+    <t>menampilkan halaman wa web dengan pesan tertulis</t>
+  </si>
+  <si>
+    <t>klik tombol ulasan</t>
+  </si>
+  <si>
+    <t>menuju halaman ulasan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman ulasan</t>
+  </si>
+  <si>
+    <t>Halaman detail toko</t>
+  </si>
+  <si>
+    <t>masuk halaman detail toko</t>
+  </si>
+  <si>
+    <t>mengirim nomor hp ke hp yang dikaitkan</t>
+  </si>
+  <si>
+    <t>Halaman Map</t>
+  </si>
+  <si>
+    <t>masuk halaman map</t>
+  </si>
+  <si>
+    <t>klik tombol arahkan jalur</t>
+  </si>
+  <si>
+    <t>menghubungkan posisi user dan toko</t>
+  </si>
+  <si>
+    <t>menampilkan jalur dari posisi user ke toko</t>
+  </si>
+  <si>
+    <t>Halaman Hasil rekomendasi Mobil</t>
+  </si>
+  <si>
+    <t>masuk halaman hasil rekomendasi mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman hasil rekomendasi mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman rekomendasi mobil beserta mobil rekomendasi</t>
+  </si>
+  <si>
+    <t>Halaman login</t>
+  </si>
+  <si>
+    <t>masuk halaman login</t>
+  </si>
+  <si>
+    <t>menuju halaman login</t>
+  </si>
+  <si>
+    <t>menampilkan halaman login</t>
+  </si>
+  <si>
+    <t>klik tombol sign in</t>
+  </si>
+  <si>
+    <t>verifikasi email dan password</t>
+  </si>
+  <si>
+    <t>verifikasi email dan password dan menampilkan halaman profil</t>
+  </si>
+  <si>
+    <t>klik link create now</t>
+  </si>
+  <si>
+    <t>menuju halaman register</t>
+  </si>
+  <si>
+    <t>menampilkan halaman register</t>
+  </si>
+  <si>
+    <t>Halaman register</t>
+  </si>
+  <si>
+    <t>masuk halaman register</t>
+  </si>
+  <si>
+    <t>klik tombol create account</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke basis data dan menampilkan halaman login</t>
+  </si>
+  <si>
+    <t>klik link sign in now</t>
+  </si>
+  <si>
+    <t>Halaman profil</t>
+  </si>
+  <si>
+    <t>masuk halaman profil</t>
+  </si>
+  <si>
+    <t>menuju halaman profil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman profil</t>
+  </si>
+  <si>
+    <t>klik tombol edit profil</t>
+  </si>
+  <si>
+    <t>menuju halaman edit profil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit profil</t>
+  </si>
+  <si>
+    <t>klik tombol reset password</t>
+  </si>
+  <si>
+    <t>menuju halaman reset password</t>
+  </si>
+  <si>
+    <t>menampilkan halaman reset password</t>
+  </si>
+  <si>
+    <t>klik tombol buka toko (user biasa)</t>
+  </si>
+  <si>
+    <t>menuju halaman buka toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman buka toko</t>
+  </si>
+  <si>
+    <t>klik tombol toko (pemilik rental)</t>
+  </si>
+  <si>
+    <t>menuju halaman toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman toko</t>
+  </si>
+  <si>
+    <t>klik tombol administrator (admin)</t>
+  </si>
+  <si>
+    <t>menuju halaman dashboard admin</t>
+  </si>
+  <si>
+    <t>menampilkan halaman dashboard admin</t>
+  </si>
+  <si>
+    <t>Halaman edit profil</t>
+  </si>
+  <si>
+    <t>masuk Halaman edit profil</t>
+  </si>
+  <si>
+    <t>menuju Halaman edit profil</t>
+  </si>
+  <si>
+    <t>menampilkan Halaman edit profil</t>
+  </si>
+  <si>
+    <t>klik tombol submit</t>
+  </si>
+  <si>
+    <t>mengubah informasi di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi profil di database sesuai inputan dan menampilkan halaman profil</t>
+  </si>
+  <si>
+    <t>halaman reset password</t>
+  </si>
+  <si>
+    <t>Masuk Halaman reset password</t>
+  </si>
+  <si>
+    <t>mengubah password di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah password di database sesuai inputan dan menampilkan halaman profil</t>
+  </si>
+  <si>
+    <t>Halaman ulasan</t>
+  </si>
+  <si>
+    <t>Masuk Halaman ulasan</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman detail mobil</t>
+  </si>
+  <si>
+    <t>Halaman buka toko</t>
+  </si>
+  <si>
+    <t>Masuk Halaman buka toko</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman profil</t>
+  </si>
+  <si>
+    <t>Halaman toko (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman toko</t>
+  </si>
+  <si>
+    <t>menuju  halaman toko</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman toko</t>
+  </si>
+  <si>
+    <t>klik tombol edit toko</t>
+  </si>
+  <si>
+    <t>menuju  halaman edit toko</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman edit toko</t>
+  </si>
+  <si>
+    <t>klik tombol lokasi</t>
+  </si>
+  <si>
+    <t>menuju  halaman map</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman map</t>
+  </si>
+  <si>
+    <t>klik tombol edit lokasi</t>
+  </si>
+  <si>
+    <t>menuju  halaman map edit lokasi</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman map edit lokasi</t>
+  </si>
+  <si>
+    <t>klik tombol aktifitas</t>
+  </si>
+  <si>
+    <t>menuju  halaman aktifitas</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman aktifitas</t>
+  </si>
+  <si>
+    <t>klik tombol hapus toko</t>
+  </si>
+  <si>
+    <t>menghapus toko beserta data child</t>
+  </si>
+  <si>
+    <t>menghapus data toko dan menampilkan  halaman toko</t>
+  </si>
+  <si>
+    <t>klik tombol tambah mobil</t>
+  </si>
+  <si>
+    <t>menuju  halaman tambah mobil</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman tambah mobil</t>
+  </si>
+  <si>
+    <t>menuju  halaman detail mobil</t>
+  </si>
+  <si>
+    <t>menampilkan  halaman detail mobil</t>
+  </si>
+  <si>
+    <t>klik tombol hapus mobil</t>
+  </si>
+  <si>
+    <t>menghapus mobil beserta data child</t>
+  </si>
+  <si>
+    <t>menghapus data mobil dan menampilkan  halaman toko</t>
+  </si>
+  <si>
+    <t>halaman edit toko (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit toko</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman toko</t>
+  </si>
+  <si>
+    <t>halaman edit lokasi toko (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit lokasi toko</t>
+  </si>
+  <si>
+    <t>klik tombol set location</t>
+  </si>
+  <si>
+    <t>mengubah lokasi di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah lokasi di database sesuai inputan dan menampilkan halaman toko</t>
+  </si>
+  <si>
+    <t>halaman tambah mobil (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman tambah mobil</t>
+  </si>
+  <si>
+    <t>halaman detail mobil (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman detail mobil</t>
+  </si>
+  <si>
+    <t>klik tombol edit mobil</t>
+  </si>
+  <si>
+    <t>klik tombol back</t>
+  </si>
+  <si>
+    <t>menghapus data mobil dan menampilkan halaman toko</t>
+  </si>
+  <si>
+    <t>halaman edit mobil (pemilik rental)</t>
+  </si>
+  <si>
+    <t>masuk halaman edit mobil</t>
+  </si>
+  <si>
+    <t>menuju  halaman edit mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit mobil</t>
+  </si>
+  <si>
+    <t>mengubah informasi mobil di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi mobil di database sesuai inputan dan menampilkan halaman detail mobil</t>
+  </si>
+  <si>
+    <t>Halaman aktifitas rental mobil (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>klik tombol tambah</t>
+  </si>
+  <si>
+    <t>menuju halaman tambah aktifitas</t>
+  </si>
+  <si>
+    <t>menampilkan halaman tambah aktifitas</t>
+  </si>
+  <si>
+    <t>klik tombol history</t>
+  </si>
+  <si>
+    <t>menuju halaman history</t>
+  </si>
+  <si>
+    <t>menampilkan halaman history</t>
+  </si>
+  <si>
+    <t>klik tombol print</t>
+  </si>
+  <si>
+    <t>menuju halaman print</t>
+  </si>
+  <si>
+    <t>menampilkan halaman print</t>
+  </si>
+  <si>
+    <t>klik tombol detail aktifitas</t>
+  </si>
+  <si>
+    <t>menuju halaman detail aktifitas</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail aktifitas</t>
+  </si>
+  <si>
+    <t>Halaman tambah aktifitas (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman tambah aktifitas</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>halaman detail aktifitas (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman detail aktifitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klik tombol edit </t>
+  </si>
+  <si>
+    <t>menuju halaman edit aktifitas</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit aktifitas</t>
+  </si>
+  <si>
+    <t>klik tombol delete</t>
+  </si>
+  <si>
+    <t>menghapus aktifitas beserta data child</t>
+  </si>
+  <si>
+    <t>menghapus data aktifitas dan menampilkan halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>klik tombol returned</t>
+  </si>
+  <si>
+    <t>mengirim data ke halaman history</t>
+  </si>
+  <si>
+    <t>mengirim data ke halaman history dan menampilkan halaman aktifitas rental mobil</t>
+  </si>
+  <si>
+    <t>klik tombol berkas peminjaman</t>
+  </si>
+  <si>
+    <t>menuju new page</t>
+  </si>
+  <si>
+    <t>menampilkan new page dan hasil print</t>
+  </si>
+  <si>
+    <t>Halaman edit aktifitas  (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit aktifitas</t>
+  </si>
+  <si>
+    <t>mengubah informasi aktifitas di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi aktifitas di database sesuai inputan dan menampilkan halaman detail aktifitas</t>
+  </si>
+  <si>
+    <t>Halaman history rental mobil (pemilik rental)</t>
+  </si>
+  <si>
+    <t>Masuk halaman history rental mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman history rental mobil</t>
+  </si>
+  <si>
+    <t>menampilkan halaman history rental mobil</t>
+  </si>
+  <si>
+    <t>klik tombol activity</t>
+  </si>
+  <si>
+    <t>klik tombol filter</t>
+  </si>
+  <si>
+    <t>menuju halaman history rental mobil dan filter data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman history rental mobil dan filter data sesuai inputan</t>
+  </si>
+  <si>
+    <t>klik tombol detail history</t>
+  </si>
+  <si>
+    <t>menuju halaman detail history</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail history</t>
+  </si>
+  <si>
+    <t>Halaman dashboard (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman dashboard admin</t>
+  </si>
+  <si>
+    <t>klik tombol pengguna</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan pengguna</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan pengguna</t>
+  </si>
+  <si>
+    <t>klik tombol toko</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>klik tombol kriteria</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan kriteria</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan kriteria</t>
+  </si>
+  <si>
+    <t>klik tombol alternatif</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>klik tombol detail pendaftar toko</t>
+  </si>
+  <si>
+    <t>menuju halaman detail pendaftar toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail pendaftar toko</t>
+  </si>
+  <si>
+    <t>menuju halaman dashboard dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman dashboard dan hasil pencarian</t>
+  </si>
+  <si>
+    <t>Halaman kumpulan user (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>klik tombol dashboard</t>
+  </si>
+  <si>
+    <t>menuju halaman  dashboard admin</t>
+  </si>
+  <si>
+    <t>menampilkan halaman  dashboard admin</t>
+  </si>
+  <si>
+    <t>klik tombol detail user</t>
+  </si>
+  <si>
+    <t>menuju halaman detail user</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail user</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan user dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan user dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>klik tombol hapus user</t>
+  </si>
+  <si>
+    <t>menghapus data user dari database</t>
+  </si>
+  <si>
+    <t>menghapus data user dari database dan menampilkan halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>klik tombol tambah user</t>
+  </si>
+  <si>
+    <t>menambah data user ke database</t>
+  </si>
+  <si>
+    <t>menambah data user ke database dan menampilkan halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>Halaman tambah user (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman tambah user</t>
+  </si>
+  <si>
+    <t>menuju halaman tambah user</t>
+  </si>
+  <si>
+    <t>menampilkan halaman tambah user</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman kumpulan user</t>
+  </si>
+  <si>
+    <t>Halaman detail user (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman detail user</t>
+  </si>
+  <si>
+    <t>klik tombol edit</t>
+  </si>
+  <si>
+    <t>menuju halaman edit user</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit user</t>
+  </si>
+  <si>
+    <t>klik tombol hapus</t>
+  </si>
+  <si>
+    <t>Halaman edit user (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit user</t>
+  </si>
+  <si>
+    <t>mengubah informasi user di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi user di database sesuai inputan dan menampilkan halaman detail user</t>
+  </si>
+  <si>
+    <t>Halaman kumpulan toko (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>klik tombol detail toko</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan toko dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan toko dan mencari data sesuai inputan</t>
+  </si>
+  <si>
+    <t>menghapus data toko dari database</t>
+  </si>
+  <si>
+    <t>menghapus data toko dari database dan menampilkan halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>klik tombol tambah toko</t>
+  </si>
+  <si>
+    <t>menambah data toko ke database</t>
+  </si>
+  <si>
+    <t>menambah data toko ke database dan menampilkan halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>Halaman tambah toko (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman tambah toko</t>
+  </si>
+  <si>
+    <t>menuju halaman tambah toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman tambah toko</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>Halaman detail toko (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman detail toko</t>
+  </si>
+  <si>
+    <t>menuju halaman  kumpulan toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman  kumpulan toko</t>
+  </si>
+  <si>
+    <t>menuju halaman edit toko</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit toko</t>
+  </si>
+  <si>
+    <t>menuju halaman detail toko dan mencari data mobil sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman detail toko dan mencari data mobil sesuai inputan</t>
+  </si>
+  <si>
+    <t>menambah data mobil ke database</t>
+  </si>
+  <si>
+    <t>menambah data mobil ke database dan menampilkan halaman detail toko</t>
+  </si>
+  <si>
+    <t>menghapus data mobil dari database</t>
+  </si>
+  <si>
+    <t>menghapus data mobil dari database dan menampilkan halaman kumpulan toko</t>
+  </si>
+  <si>
+    <t>Halaman edit toko (admin)</t>
+  </si>
+  <si>
+    <t>mengubah informasi toko di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi toko di database sesuai inputan dan menampilkan halaman detail toko</t>
+  </si>
+  <si>
+    <t>Halaman detail mobil (admin)</t>
+  </si>
+  <si>
+    <t>menghapus data mobil dari database dan menampilkan halaman detail toko</t>
+  </si>
+  <si>
+    <t>Halaman edit mobil (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit mobil</t>
+  </si>
+  <si>
+    <t>menuju halaman edit mobil</t>
+  </si>
+  <si>
+    <t>Halaman kumpulan kriteria (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman kumpulan kriteria</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpulan kriteria dan mencari data kriteria sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpulan kriteria dan hasil pencarian</t>
+  </si>
+  <si>
+    <t>menuju halaman edit kriteria</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit kriteria</t>
+  </si>
+  <si>
+    <t>Halaman edit kriteria (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit kriteria</t>
+  </si>
+  <si>
+    <t>mengubah informasi kriteria di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi kriteria di database sesuai inputan dan menampilkan halaman kumpulan kriteria</t>
+  </si>
+  <si>
+    <t>Halaman kumpulan alternatif (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>klik tombol tambah alternatif</t>
+  </si>
+  <si>
+    <t>menuju halaman tambah alternatif</t>
+  </si>
+  <si>
+    <t>menampilkan halaman tambah alternatif</t>
+  </si>
+  <si>
+    <t>menuju halaman kumpilan kriteria dan mencari data kriteria sesuai inputan</t>
+  </si>
+  <si>
+    <t>menampilkan halaman kumpilan kriteria dan mencari data kriteria sesuai inputan</t>
+  </si>
+  <si>
+    <t>menuju halaman edit alternatif</t>
+  </si>
+  <si>
+    <t>menampilkan halaman edit alternatif</t>
+  </si>
+  <si>
+    <t>menghapus data alternatif dari database</t>
+  </si>
+  <si>
+    <t>menghapus data alternatif dari database dan menampilkan halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>Halaman tambah alternatif (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman tambah alternatif</t>
+  </si>
+  <si>
+    <t>menambahkan inputan ke database dan menampilkan halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>Halaman edit alternatif (admin)</t>
+  </si>
+  <si>
+    <t>Masuk halaman edit alternatif</t>
+  </si>
+  <si>
+    <t>mengubah informasi alternatif di database sesuai inputan</t>
+  </si>
+  <si>
+    <t>mengubah informasi alternatif di database sesuai inputan dan menampilkan halaman kumpulan alternatif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +1770,19 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +1807,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -607,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,31 +1855,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1811,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D9F5-B1D6-48D1-930D-6DBF8F6F234E}">
   <dimension ref="C4:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="F88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -6055,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A72435-518D-40D4-88A4-F9FACB9974C4}">
   <dimension ref="A1:AF903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C875" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:P902"/>
+    <sheetView topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6106,15 +7329,15 @@
       <c r="P1" s="9"/>
       <c r="Y1" s="2">
         <f ca="1">INDEX($Y$4:$Y$6,RANDBETWEEN(1,COUNTA($Y$4:$Y$6)),1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="2">
         <f ca="1">INDEX($Y$13:$Y$15,RANDBETWEEN(1,COUNTA($Y$13:$Y$15)),1)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="2">
         <f ca="1">INDEX($AB$16:$AB$18,RANDBETWEEN(1,COUNTA($AB$16:$AB$18)),1)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -39278,52 +40501,52 @@
     <mergeCell ref="F1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C29">
-    <cfRule type="duplicateValues" dxfId="34" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C65">
-    <cfRule type="duplicateValues" dxfId="33" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T5">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T9">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T12">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40212,50 +41435,6538 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B48:B52">
-    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0924F-CC00-40E1-9806-43B4F40D52EF}">
+  <dimension ref="B1:AZ65"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="10"/>
+    <col min="23" max="23" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="10"/>
+    <col min="32" max="32" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="10"/>
+    <col min="41" max="41" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="10"/>
+    <col min="46" max="46" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="2" style="10" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="X1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="AX3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="10">
+        <v>483</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>10</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4</v>
+      </c>
+      <c r="T5" s="10">
+        <v>4</v>
+      </c>
+      <c r="U5" s="10">
+        <v>12</v>
+      </c>
+      <c r="W5" s="10">
+        <v>483</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="10">
+        <v>517</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
+        <v>10</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2</v>
+      </c>
+      <c r="S6" s="10">
+        <v>4</v>
+      </c>
+      <c r="T6" s="10">
+        <v>4</v>
+      </c>
+      <c r="U6" s="10">
+        <v>12</v>
+      </c>
+      <c r="W6" s="10">
+        <v>517</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="11">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="10">
+        <v>692</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>13</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>4</v>
+      </c>
+      <c r="T7" s="10">
+        <v>4</v>
+      </c>
+      <c r="U7" s="10">
+        <v>12</v>
+      </c>
+      <c r="W7" s="10">
+        <v>692</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="11">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="10">
+        <v>716</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <v>13</v>
+      </c>
+      <c r="P8" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10">
+        <v>4</v>
+      </c>
+      <c r="T8" s="10">
+        <v>4</v>
+      </c>
+      <c r="U8" s="10">
+        <v>12</v>
+      </c>
+      <c r="W8" s="10">
+        <v>716</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="10">
+        <v>800</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10">
+        <v>6</v>
+      </c>
+      <c r="P9" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2</v>
+      </c>
+      <c r="S9" s="10">
+        <v>4</v>
+      </c>
+      <c r="T9" s="10">
+        <v>4</v>
+      </c>
+      <c r="U9" s="10">
+        <v>12</v>
+      </c>
+      <c r="W9" s="10">
+        <v>800</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="10">
+        <v>805</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
+      <c r="S10" s="10">
+        <v>4</v>
+      </c>
+      <c r="T10" s="10">
+        <v>4</v>
+      </c>
+      <c r="U10" s="10">
+        <v>12</v>
+      </c>
+      <c r="W10" s="10">
+        <v>805</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2017</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="10">
+        <v>813</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <v>8</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2</v>
+      </c>
+      <c r="S11" s="10">
+        <v>4</v>
+      </c>
+      <c r="T11" s="10">
+        <v>4</v>
+      </c>
+      <c r="U11" s="10">
+        <v>12</v>
+      </c>
+      <c r="W11" s="10">
+        <v>813</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="10">
+        <v>900</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <v>11</v>
+      </c>
+      <c r="P12" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>2</v>
+      </c>
+      <c r="S12" s="10">
+        <v>4</v>
+      </c>
+      <c r="T12" s="10">
+        <v>4</v>
+      </c>
+      <c r="U12" s="10">
+        <v>12</v>
+      </c>
+      <c r="W12" s="10">
+        <v>900</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="10">
+        <v>928</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10">
+        <v>8</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>2</v>
+      </c>
+      <c r="R13" s="10">
+        <v>2</v>
+      </c>
+      <c r="S13" s="10">
+        <v>4</v>
+      </c>
+      <c r="T13" s="10">
+        <v>4</v>
+      </c>
+      <c r="U13" s="10">
+        <v>12</v>
+      </c>
+      <c r="W13" s="10">
+        <v>928</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="O14" s="10">
+        <f>SUM(O5:O13)</f>
+        <v>85</v>
+      </c>
+      <c r="P14" s="10">
+        <f>SUM(P5:P13)</f>
+        <v>15</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" ref="Q14:U14" si="0">SUM(Q5:Q13)</f>
+        <v>14</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="O15" s="10">
+        <f>O5^2</f>
+        <v>100</v>
+      </c>
+      <c r="P15" s="10">
+        <f>P5^2</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" ref="Q15:U23" si="1">Q5^2</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="O16" s="10">
+        <f>O6^2</f>
+        <v>100</v>
+      </c>
+      <c r="P16" s="10">
+        <f>P6^2</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="O17" s="10">
+        <f t="shared" ref="O17:P23" si="2">O7^2</f>
+        <v>169</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="O18" s="10">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W18" s="10">
+        <v>483</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="O19" s="10">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W19" s="10">
+        <v>517</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W20" s="10">
+        <v>692</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="O21" s="10">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W21" s="10">
+        <v>716</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W22" s="10">
+        <v>800</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="W23" s="10">
+        <v>805</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="10">
+        <f>SUM(O15:O23)</f>
+        <v>859</v>
+      </c>
+      <c r="P24" s="10">
+        <f>SUM(P15:P23)</f>
+        <v>31</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" ref="Q24:U24" si="3">SUM(Q15:Q23)</f>
+        <v>26</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
+      <c r="W24" s="10">
+        <v>813</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="10">
+        <f>SQRT(O24)</f>
+        <v>29.308701779505689</v>
+      </c>
+      <c r="P25" s="10">
+        <f>SQRT(P24)</f>
+        <v>5.5677643628300215</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" ref="Q25:U25" si="4">SQRT(Q24)</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="U25" s="10">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="W25" s="10">
+        <v>900</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W26" s="10">
+        <v>928</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD26" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="10">
+        <f>O5/$O$25</f>
+        <v>0.3411955969674702</v>
+      </c>
+      <c r="P27" s="10">
+        <f>P5/$P$25</f>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>Q5/$Q$25</f>
+        <v>0.19611613513818404</v>
+      </c>
+      <c r="R27" s="10">
+        <f>R5/$R$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S27" s="10">
+        <f>S5/$S$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T27" s="10">
+        <f>T5/$T$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U27" s="10">
+        <f>U5/$U$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" s="10">
+        <f>O6/$O$25</f>
+        <v>0.3411955969674702</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" ref="P28:P35" si="5">P6/$P$25</f>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" ref="Q28:Q35" si="6">Q6/$Q$25</f>
+        <v>0.58834840541455213</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" ref="R28:R35" si="7">R6/$R$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" ref="S28:S35" si="8">S6/$S$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" ref="T28:T35" si="9">T6/$T$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" ref="U28:U35" si="10">U6/$U$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="L29" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" ref="O29:P35" si="11">O7/$O$25</f>
+        <v>0.44355427605771125</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19611613513818404</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T29" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="L30" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="11"/>
+        <v>0.44355427605771125</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5388159060803247</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19611613513818404</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T30" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W30" s="10">
+        <v>483</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>800</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="11"/>
+        <v>0.20471735818048212</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5388159060803247</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" si="6"/>
+        <v>0.39223227027636809</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T31" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U31" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W31" s="10">
+        <v>517</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>517</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="11"/>
+        <v>0.20471735818048212</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.35921060405354982</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19611613513818404</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T32" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U32" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W32" s="10">
+        <v>692</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y32" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>900</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>35</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="10">
+        <f>O11/$O$25</f>
+        <v>0.27295647757397618</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19611613513818404</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S33" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T33" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U33" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W33" s="10">
+        <v>716</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>716</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>36</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="11"/>
+        <v>0.37531515666421722</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="5"/>
+        <v>0.35921060405354982</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" si="6"/>
+        <v>0.39223227027636809</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T34" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W34" s="10">
+        <v>800</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>928</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD34" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>37</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="11"/>
+        <v>0.27295647757397618</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="5"/>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" si="6"/>
+        <v>0.39223227027636809</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S35" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T35" s="10">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W35" s="10">
+        <v>805</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>805</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>38</v>
+      </c>
+      <c r="G36" s="3">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4</v>
+      </c>
+      <c r="W36" s="10">
+        <v>813</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>692</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>7</v>
+      </c>
+      <c r="AD36" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
+        <f>O27*$L$29</f>
+        <v>3.4119559696747022E-2</v>
+      </c>
+      <c r="P37" s="10">
+        <f>P27*$L$30</f>
+        <v>2.6940795304016236E-2</v>
+      </c>
+      <c r="Q37" s="10">
+        <f>Q27*$L$31</f>
+        <v>3.9223227027636809E-2</v>
+      </c>
+      <c r="R37" s="10">
+        <f>R27*$L$32</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S37" s="10">
+        <f>S27*$L$33</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T37" s="10">
+        <f>T27*$L$34</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U37" s="10">
+        <f>U27*$L$35</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="W37" s="10">
+        <v>900</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>483</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" ref="O38:O45" si="12">O28*$L$29</f>
+        <v>3.4119559696747022E-2</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" ref="P38:P45" si="13">P28*$L$30</f>
+        <v>2.6940795304016236E-2</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" ref="Q38:Q45" si="14">Q28*$L$31</f>
+        <v>0.11766968108291043</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" ref="R38:R45" si="15">R28*$L$32</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" ref="S38:S45" si="16">S28*$L$33</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T38" s="10">
+        <f t="shared" ref="T38:T45" si="17">T28*$L$34</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U38" s="10">
+        <f t="shared" ref="U38:U44" si="18">U28*$L$35</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="W38" s="10">
+        <v>928</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y38" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>813</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>41</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="12"/>
+        <v>4.4355427605771131E-2</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="13"/>
+        <v>2.6940795304016236E-2</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="14"/>
+        <v>3.9223227027636809E-2</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T39" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="12"/>
+        <v>4.4355427605771131E-2</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0822385912048697E-2</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" si="14"/>
+        <v>3.9223227027636809E-2</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T40" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U40" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="12"/>
+        <v>2.0471735818048214E-2</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0822385912048697E-2</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="14"/>
+        <v>7.8446454055273618E-2</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S41" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T41" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U41" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="12"/>
+        <v>2.0471735818048214E-2</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="13"/>
+        <v>5.3881590608032472E-2</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" si="14"/>
+        <v>3.9223227027636809E-2</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T42" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U42" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="3">
+        <v>7</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="12"/>
+        <v>2.729564775739762E-2</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="13"/>
+        <v>2.6940795304016236E-2</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" si="14"/>
+        <v>3.9223227027636809E-2</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S43" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T43" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U43" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>46</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="12"/>
+        <v>3.7531515666421725E-2</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="13"/>
+        <v>5.3881590608032472E-2</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="14"/>
+        <v>7.8446454055273618E-2</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T44" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U44" s="10">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>47</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="12"/>
+        <v>2.729564775739762E-2</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="13"/>
+        <v>2.6940795304016236E-2</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" si="14"/>
+        <v>7.8446454055273618E-2</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="S45" s="10">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T45" s="10">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U45" s="10">
+        <f>U35*$L$35</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>48</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="T47" s="10">
+        <f>SUM(O37:T37)</f>
+        <v>0.21695024869506671</v>
+      </c>
+      <c r="U47" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4</v>
+      </c>
+      <c r="T48" s="10">
+        <f>SUM(O38:T38)</f>
+        <v>0.29539670275034036</v>
+      </c>
+      <c r="U48" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>51</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" ref="T49:T55" si="19">SUM(O39:T39)</f>
+        <v>0.22718611660409083</v>
+      </c>
+      <c r="U49" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>19</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>52</v>
+      </c>
+      <c r="G50" s="7">
+        <v>300000</v>
+      </c>
+      <c r="H50" s="3">
+        <v>14</v>
+      </c>
+      <c r="T50" s="10">
+        <f t="shared" si="19"/>
+        <v>0.28106770721212326</v>
+      </c>
+      <c r="U50" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>53</v>
+      </c>
+      <c r="G51" s="7">
+        <v>350000</v>
+      </c>
+      <c r="H51" s="3">
+        <v>13</v>
+      </c>
+      <c r="P51" s="10">
+        <v>800</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0.22974057578537055</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="T51" s="10">
+        <f t="shared" si="19"/>
+        <v>0.2964072424520372</v>
+      </c>
+      <c r="U51" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>21</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2">
+        <v>54</v>
+      </c>
+      <c r="G52" s="7">
+        <v>400000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>12</v>
+      </c>
+      <c r="P52" s="10">
+        <v>517</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0.2287300360836737</v>
+      </c>
+      <c r="T52" s="10">
+        <f t="shared" si="19"/>
+        <v>0.23024322012038415</v>
+      </c>
+      <c r="U52" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E53" s="3">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>55</v>
+      </c>
+      <c r="G53" s="7">
+        <v>450000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>11</v>
+      </c>
+      <c r="P53" s="10">
+        <v>900</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0.21985956032972781</v>
+      </c>
+      <c r="T53" s="10">
+        <f t="shared" si="19"/>
+        <v>0.21012633675571732</v>
+      </c>
+      <c r="U53" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>56</v>
+      </c>
+      <c r="G54" s="7">
+        <v>500000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>10</v>
+      </c>
+      <c r="P54" s="10">
+        <v>716</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0.21440104054545661</v>
+      </c>
+      <c r="T54" s="10">
+        <f t="shared" si="19"/>
+        <v>0.28652622699639446</v>
+      </c>
+      <c r="U54" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>24</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E55" s="3">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>57</v>
+      </c>
+      <c r="G55" s="7">
+        <v>550000</v>
+      </c>
+      <c r="H55" s="3">
+        <v>9</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="P55" s="10">
+        <v>928</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0.18268289711668745</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" si="19"/>
+        <v>0.2493495637833541</v>
+      </c>
+      <c r="U55" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>25</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2">
+        <v>58</v>
+      </c>
+      <c r="G56" s="7">
+        <v>600000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>8</v>
+      </c>
+      <c r="P56" s="10">
+        <v>805</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0.16357655345371747</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>26</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2">
+        <v>59</v>
+      </c>
+      <c r="G57" s="7">
+        <v>650000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7</v>
+      </c>
+      <c r="P57" s="10">
+        <v>692</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>0.16051944993742417</v>
+      </c>
+      <c r="T57" s="10">
+        <f>T47-U47</f>
+        <v>0.15028358202840003</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>27</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
+        <v>60</v>
+      </c>
+      <c r="G58" s="7">
+        <v>700000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>6</v>
+      </c>
+      <c r="P58" s="10">
+        <v>483</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>0.15028358202840003</v>
+      </c>
+      <c r="T58" s="10">
+        <f t="shared" ref="T58:T65" si="20">T48-U48</f>
+        <v>0.2287300360836737</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>28</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2">
+        <v>61</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5</v>
+      </c>
+      <c r="P59" s="10">
+        <v>813</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>0.14345967008905064</v>
+      </c>
+      <c r="T59" s="10">
+        <f t="shared" si="20"/>
+        <v>0.16051944993742417</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>62</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1200000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="T60" s="10">
+        <f t="shared" si="20"/>
+        <v>0.21440104054545661</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>30</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>63</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3</v>
+      </c>
+      <c r="T61" s="10">
+        <f t="shared" si="20"/>
+        <v>0.22974057578537055</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>31</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>64</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1400000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2</v>
+      </c>
+      <c r="T62" s="10">
+        <f t="shared" si="20"/>
+        <v>0.16357655345371747</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>65</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="T63" s="10">
+        <f t="shared" si="20"/>
+        <v>0.14345967008905064</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>33</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="T64" s="10">
+        <f t="shared" si="20"/>
+        <v>0.21985956032972781</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T65" s="10">
+        <f t="shared" si="20"/>
+        <v>0.18268289711668745</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D32:D46">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G49">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87420A14-F1DC-4AA8-B881-E2F03F169668}">
+  <dimension ref="A1:F265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="18"/>
+    <col min="4" max="4" width="73.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="27.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>4</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>2</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>3</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="D35" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
+        <v>2</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
+        <v>3</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="D41" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
+        <v>2</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
+        <v>3</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="D47" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>2</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>3</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
+        <v>2</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
+        <v>3</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
+        <v>4</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
+        <v>5</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
+        <v>6</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="D61" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="17">
+        <v>1</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
+        <v>2</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="D66" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="17">
+        <v>1</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="17">
+        <v>2</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="D71" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
+        <v>1</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
+        <v>2</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="D76" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="17">
+        <v>1</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="17">
+        <v>2</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="D81" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="17">
+        <v>1</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="17">
+        <v>3</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="17">
+        <v>4</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="17">
+        <v>5</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="17">
+        <v>6</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="17">
+        <v>7</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="17">
+        <v>8</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="17">
+        <v>9</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="17">
+        <v>10</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="D93" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="17">
+        <v>1</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="17">
+        <v>2</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="D98" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="17">
+        <v>1</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="17">
+        <v>2</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="D103" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="17">
+        <v>1</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="17">
+        <v>2</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="D108" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="17">
+        <v>1</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="17">
+        <v>2</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="17">
+        <v>3</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="17">
+        <v>4</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="17">
+        <v>5</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="14"/>
+    </row>
+    <row r="115" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="D115" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="17">
+        <v>1</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="17">
+        <v>2</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="14"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="14"/>
+    </row>
+    <row r="120" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="D120" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F120" s="19"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="17">
+        <v>1</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="17">
+        <v>2</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="17">
+        <v>3</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="17">
+        <v>4</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="17">
+        <v>5</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="17">
+        <v>6</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="14"/>
+    </row>
+    <row r="128" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="D128" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="17">
+        <v>1</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="17">
+        <v>2</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="14"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="14"/>
+    </row>
+    <row r="133" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="D133" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F133" s="19"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="17">
+        <v>1</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="17">
+        <v>2</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="17">
+        <v>3</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="17">
+        <v>4</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="17">
+        <v>5</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="17">
+        <v>6</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="17">
+        <v>7</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="17">
+        <v>8</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="14"/>
+    </row>
+    <row r="143" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="D143" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F143" s="19"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="17">
+        <v>1</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="17">
+        <v>2</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="14"/>
+    </row>
+    <row r="148" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="D148" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F148" s="19"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="17">
+        <v>1</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="17">
+        <v>2</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="17">
+        <v>3</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="17">
+        <v>4</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="17">
+        <v>5</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="17">
+        <v>6</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="14"/>
+    </row>
+    <row r="156" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="D156" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F156" s="19"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="17">
+        <v>1</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="17">
+        <v>2</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="17">
+        <v>3</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="17">
+        <v>4</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="17">
+        <v>5</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="17">
+        <v>6</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="17">
+        <v>7</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="D165" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="17">
+        <v>1</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="17">
+        <v>2</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="17">
+        <v>3</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="17">
+        <v>4</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="17">
+        <v>5</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="17">
+        <v>6</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="17">
+        <v>7</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="17">
+        <v>8</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="17">
+        <v>9</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="14"/>
+    </row>
+    <row r="176" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
+      <c r="D176" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F176" s="19"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="17">
+        <v>1</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="17">
+        <v>2</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="14"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="14"/>
+    </row>
+    <row r="181" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
+      <c r="D181" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="F181" s="19"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="17">
+        <v>1</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="17">
+        <v>2</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="17">
+        <v>3</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="17">
+        <v>4</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="14"/>
+    </row>
+    <row r="187" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="D187" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="F187" s="19"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="17">
+        <v>1</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="17">
+        <v>2</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="14"/>
+    </row>
+    <row r="191" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
+      <c r="D191" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="F191" s="19"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="17">
+        <v>1</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="17">
+        <v>2</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="17">
+        <v>3</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="17">
+        <v>4</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="17">
+        <v>5</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="17">
+        <v>6</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="17">
+        <v>7</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="17">
+        <v>8</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="17">
+        <v>9</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="14"/>
+    </row>
+    <row r="202" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
+      <c r="D202" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="F202" s="19"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="17">
+        <v>1</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="17">
+        <v>2</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="14"/>
+    </row>
+    <row r="206" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
+      <c r="D206" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="F206" s="19"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="17">
+        <v>1</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="17">
+        <v>2</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="17">
+        <v>3</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="17">
+        <v>4</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="17">
+        <v>5</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="17">
+        <v>6</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="17">
+        <v>7</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="17">
+        <v>8</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E214" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="17">
+        <v>9</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F216" s="14"/>
+    </row>
+    <row r="217" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="15"/>
+      <c r="B217" s="15"/>
+      <c r="D217" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" s="19"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="17">
+        <v>1</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E218" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="17">
+        <v>2</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15"/>
+      <c r="B222" s="15"/>
+      <c r="D222" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="F222" s="19"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="17">
+        <v>1</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="17">
+        <v>2</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E224" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="17">
+        <v>3</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E225" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="17">
+        <v>4</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E226" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
+      <c r="D228" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F228" s="19"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="17">
+        <v>1</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="17">
+        <v>2</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E230" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="15"/>
+      <c r="B233" s="15"/>
+      <c r="D233" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F233" s="19"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="17">
+        <v>1</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E234" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="17">
+        <v>2</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E235" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="17">
+        <v>3</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E236" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="17">
+        <v>4</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E237" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="17">
+        <v>5</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E238" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="17">
+        <v>6</v>
+      </c>
+      <c r="C239" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E239" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="17">
+        <v>7</v>
+      </c>
+      <c r="C240" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E240" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="14"/>
+    </row>
+    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="15"/>
+      <c r="B242" s="15"/>
+      <c r="D242" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="F242" s="19"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="17">
+        <v>1</v>
+      </c>
+      <c r="C243" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E243" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="17">
+        <v>2</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E244" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="14"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="14"/>
+    </row>
+    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="15"/>
+      <c r="B247" s="15"/>
+      <c r="D247" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="F247" s="19"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="17">
+        <v>1</v>
+      </c>
+      <c r="C248" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E248" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="17">
+        <v>2</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="17">
+        <v>3</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E250" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="17">
+        <v>4</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E251" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="17">
+        <v>5</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D252" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E252" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="17">
+        <v>6</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E253" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="17">
+        <v>7</v>
+      </c>
+      <c r="C254" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E254" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="17">
+        <v>8</v>
+      </c>
+      <c r="C255" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E255" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="17">
+        <v>9</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E256" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F257" s="14"/>
+    </row>
+    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="15"/>
+      <c r="B258" s="15"/>
+      <c r="D258" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="F258" s="19"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="17">
+        <v>1</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E259" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="17">
+        <v>2</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E260" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="14"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F262" s="14"/>
+    </row>
+    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="15"/>
+      <c r="B263" s="15"/>
+      <c r="D263" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F263" s="19"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="17">
+        <v>1</v>
+      </c>
+      <c r="C264" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E264" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="17">
+        <v>2</v>
+      </c>
+      <c r="C265" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E265" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
+++ b/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNL\MK\Tugas Akhir\TGA-Code\tga-rental-mobil\public\DatabaseRecovery\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9FCAE-B92F-4042-812E-9ED35ADB3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA20BC53-B2D3-478F-8279-E9B888899530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Akun" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="556">
   <si>
     <t>Nama Pemilik</t>
   </si>
@@ -1750,6 +1750,12 @@
   </si>
   <si>
     <t>mengubah informasi alternatif di database sesuai inputan dan menampilkan halaman kumpulan alternatif</t>
+  </si>
+  <si>
+    <t>CASE 2</t>
+  </si>
+  <si>
+    <t>Avanza Veloz</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1852,9 +1858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1878,6 +1881,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7314,38 +7326,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Y1" s="2">
         <f ca="1">INDEX($Y$4:$Y$6,RANDBETWEEN(1,COUNTA($Y$4:$Y$6)),1)</f>
         <v>27</v>
       </c>
       <c r="Z1" s="2">
         <f ca="1">INDEX($Y$13:$Y$15,RANDBETWEEN(1,COUNTA($Y$13:$Y$15)),1)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="2">
         <f ca="1">INDEX($AB$16:$AB$18,RANDBETWEEN(1,COUNTA($AB$16:$AB$18)),1)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8153,11 +8165,11 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="F13" s="2">
         <v>111</v>
       </c>
@@ -41485,1148 +41497,1146 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0924F-CC00-40E1-9806-43B4F40D52EF}">
-  <dimension ref="B1:AZ65"/>
+  <dimension ref="B1:AZ88"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" topLeftCell="H70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T87" sqref="T87:T88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="10"/>
-    <col min="23" max="23" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="10"/>
-    <col min="32" max="32" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="10"/>
-    <col min="41" max="41" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="10"/>
-    <col min="46" max="46" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="2" style="10" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="9"/>
+    <col min="23" max="23" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="25.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="9"/>
+    <col min="32" max="32" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="9"/>
+    <col min="41" max="41" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="9"/>
+    <col min="46" max="46" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="2" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AX1" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2019</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>483</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>10</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>1</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>1</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <v>2</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <v>4</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <v>4</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>12</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <v>483</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2019</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>517</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>1</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>10</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>1</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>3</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="9">
         <v>4</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>4</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>12</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="9">
         <v>517</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2022</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>692</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>1</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>13</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>1</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <v>2</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <v>4</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>4</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>12</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>692</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AD7" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2022</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>716</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>1</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>13</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>3</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <v>2</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>4</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>4</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>12</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="9">
         <v>716</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AC8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AD8" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>2015</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="10">
         <v>7</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>800</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>1</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>6</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>3</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>2</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>2</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <v>4</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>4</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>12</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="9">
         <v>800</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Y9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AA9" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AC9" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AD9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2015</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>7</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>805</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>6</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>2</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>1</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <v>2</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="9">
         <v>4</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>4</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>12</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="9">
         <v>805</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Z10" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AC10" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AD10" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>2017</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>7</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>813</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>8</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <v>2</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <v>4</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>4</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>12</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="9">
         <v>813</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC11" s="10" t="s">
+      <c r="AC11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2020</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="10">
         <v>7</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>900</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>11</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>2</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <v>2</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="9">
         <v>4</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>4</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9">
         <v>12</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="9">
         <v>900</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Y12" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="Z12" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AD12" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>2017</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10">
         <v>7</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>928</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>1</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>8</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>1</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>2</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <v>2</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="9">
         <v>4</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>4</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="9">
         <v>12</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="9">
         <v>928</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y13" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z13" s="10" t="s">
+      <c r="Z13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD13" s="10" t="s">
+      <c r="AD13" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <f>SUM(O5:O13)</f>
         <v>85</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <f>SUM(P5:P13)</f>
         <v>15</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f t="shared" ref="Q14:U14" si="0">SUM(Q5:Q13)</f>
         <v>14</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <f>O5^2</f>
         <v>100</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <f>P5^2</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <f t="shared" ref="Q15:U23" si="1">Q5^2</f>
         <v>1</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AA15" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <f>O6^2</f>
         <v>100</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <f>P6^2</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <f t="shared" ref="O17:P23" si="2">O7^2</f>
         <v>169</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="X17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Y17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AB17" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AC17" s="11" t="s">
+      <c r="AC17" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AD17" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <v>483</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="X18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Y18" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="Z18" s="10" t="s">
+      <c r="Z18" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <v>517</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="X19" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Y19" s="10" t="s">
+      <c r="Y19" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="Z19" s="10" t="s">
+      <c r="Z19" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB19" s="10" t="s">
+      <c r="AB19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42640,56 +42650,56 @@
       <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="9">
         <v>692</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="X20" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="Y20" s="10" t="s">
+      <c r="Y20" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="Z20" s="10" t="s">
+      <c r="Z20" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB20" s="10" t="s">
+      <c r="AB20" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC20" s="10" t="s">
+      <c r="AC20" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD20" s="10" t="s">
+      <c r="AD20" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42701,56 +42711,56 @@
         <v>98</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <v>716</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X21" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="Y21" s="10" t="s">
+      <c r="Y21" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Z21" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AC21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AD21" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42764,56 +42774,56 @@
       <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="9">
         <v>800</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="X22" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="Y22" s="10" t="s">
+      <c r="Y22" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="Z22" s="10" t="s">
+      <c r="Z22" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AA22" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB22" s="10" t="s">
+      <c r="AB22" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AC22" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD22" s="10" t="s">
+      <c r="AD22" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42827,56 +42837,56 @@
       <c r="E23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="9">
         <v>805</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="X23" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="Y23" s="10" t="s">
+      <c r="Y23" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="Z23" s="10" t="s">
+      <c r="Z23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AA23" s="10" t="s">
+      <c r="AA23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB23" s="10" t="s">
+      <c r="AB23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC23" s="10" t="s">
+      <c r="AC23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD23" s="10" t="s">
+      <c r="AD23" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42890,56 +42900,56 @@
       <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <f>SUM(O15:O23)</f>
         <v>859</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="9">
         <f>SUM(P15:P23)</f>
         <v>31</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <f t="shared" ref="Q24:U24" si="3">SUM(Q15:Q23)</f>
         <v>26</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="9">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="9">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <f t="shared" si="3"/>
         <v>1296</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <v>813</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="Y24" s="10" t="s">
+      <c r="Y24" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="Z24" s="10" t="s">
+      <c r="Z24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AA24" s="10" t="s">
+      <c r="AA24" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB24" s="10" t="s">
+      <c r="AB24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AC24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD24" s="10" t="s">
+      <c r="AD24" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -42953,56 +42963,56 @@
       <c r="E25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <f>SQRT(O24)</f>
         <v>29.308701779505689</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="9">
         <f>SQRT(P24)</f>
         <v>5.5677643628300215</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <f t="shared" ref="Q25:U25" si="4">SQRT(Q24)</f>
         <v>5.0990195135927845</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="9">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="9">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="9">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="9">
         <v>900</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Y25" s="10" t="s">
+      <c r="Y25" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="Z25" s="10" t="s">
+      <c r="Z25" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="AA25" s="10" t="s">
+      <c r="AA25" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB25" s="10" t="s">
+      <c r="AB25" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC25" s="10" t="s">
+      <c r="AC25" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD25" s="10" t="s">
+      <c r="AD25" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -43016,28 +43026,28 @@
       <c r="E26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W26" s="9">
         <v>928</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="X26" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="Y26" s="10" t="s">
+      <c r="Y26" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="Z26" s="10" t="s">
+      <c r="Z26" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AA26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AB26" s="10" t="s">
+      <c r="AB26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AC26" s="10" t="s">
+      <c r="AC26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AD26" s="10" t="s">
+      <c r="AD26" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -43051,31 +43061,31 @@
       <c r="E27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <f>O5/$O$25</f>
         <v>0.3411955969674702</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="9">
         <f>P5/$P$25</f>
         <v>0.17960530202677491</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <f>Q5/$Q$25</f>
         <v>0.19611613513818404</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <f>R5/$R$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="9">
         <f>S5/$S$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="9">
         <f>T5/$T$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="9">
         <f>U5/$U$25</f>
         <v>0.33333333333333331</v>
       </c>
@@ -43090,152 +43100,152 @@
       <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <f>O6/$O$25</f>
         <v>0.3411955969674702</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="9">
         <f t="shared" ref="P28:P35" si="5">P6/$P$25</f>
         <v>0.17960530202677491</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q35" si="6">Q6/$Q$25</f>
         <v>0.58834840541455213</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <f t="shared" ref="R28:R35" si="7">R6/$R$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="9">
         <f t="shared" ref="S28:S35" si="8">S6/$S$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="9">
         <f t="shared" ref="T28:T35" si="9">T6/$T$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="9">
         <f t="shared" ref="U28:U35" si="10">U6/$U$25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X28" s="10" t="s">
+      <c r="X28" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AB28" s="10" t="s">
+      <c r="AB28" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>0.1</v>
       </c>
-      <c r="O29" s="10">
-        <f t="shared" ref="O29:P35" si="11">O7/$O$25</f>
+      <c r="O29" s="9">
+        <f t="shared" ref="O29:O35" si="11">O7/$O$25</f>
         <v>0.44355427605771125</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="9">
         <f t="shared" si="5"/>
         <v>0.17960530202677491</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <f t="shared" si="6"/>
         <v>0.19611613513818404</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U29" s="10">
+      <c r="U29" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="W29" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="X29" s="10" t="s">
+      <c r="X29" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="Y29" s="10" t="s">
+      <c r="Y29" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="AB29" s="10" t="s">
+      <c r="AB29" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AC29" s="10" t="s">
+      <c r="AC29" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>0.15</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <f t="shared" si="11"/>
         <v>0.44355427605771125</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="9">
         <f t="shared" si="5"/>
         <v>0.5388159060803247</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <f t="shared" si="6"/>
         <v>0.19611613513818404</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="9">
         <v>483</v>
       </c>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" s="10" t="s">
+      <c r="Y30" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z30" s="10" t="s">
+      <c r="Z30" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="9">
         <v>800</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="9">
         <v>1</v>
       </c>
-      <c r="AD30" s="10" t="s">
+      <c r="AD30" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -43258,56 +43268,56 @@
       <c r="H31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>0.2</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <f t="shared" si="11"/>
         <v>0.20471735818048212</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="9">
         <f t="shared" si="5"/>
         <v>0.5388159060803247</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <f t="shared" si="6"/>
         <v>0.39223227027636809</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U31" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W31" s="9">
         <v>517</v>
       </c>
-      <c r="X31" s="10" t="s">
+      <c r="X31" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="Y31" s="10" t="s">
+      <c r="Y31" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z31" s="10" t="s">
+      <c r="Z31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AB31" s="9">
         <v>517</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AC31" s="9">
         <v>2</v>
       </c>
-      <c r="AD31" s="10" t="s">
+      <c r="AD31" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -43330,56 +43340,56 @@
       <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>0.15</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <f t="shared" si="11"/>
         <v>0.20471735818048212</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <f t="shared" si="5"/>
         <v>0.35921060405354982</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <f t="shared" si="6"/>
         <v>0.19611613513818404</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W32" s="9">
         <v>692</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="X32" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="Y32" s="10" t="s">
+      <c r="Y32" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z32" s="10" t="s">
+      <c r="Z32" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="9">
         <v>900</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC32" s="9">
         <v>3</v>
       </c>
-      <c r="AD32" s="10" t="s">
+      <c r="AD32" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -43402,56 +43412,56 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>0.1</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="9">
         <f>O11/$O$25</f>
         <v>0.27295647757397618</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="9">
         <f t="shared" si="5"/>
         <v>0.17960530202677491</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <f t="shared" si="6"/>
         <v>0.19611613513818404</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W33" s="10">
+      <c r="W33" s="9">
         <v>716</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="X33" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="Y33" s="10" t="s">
+      <c r="Y33" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z33" s="10" t="s">
+      <c r="Z33" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AB33" s="10">
+      <c r="AB33" s="9">
         <v>716</v>
       </c>
-      <c r="AC33" s="10">
+      <c r="AC33" s="9">
         <v>4</v>
       </c>
-      <c r="AD33" s="10" t="s">
+      <c r="AD33" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -43474,56 +43484,56 @@
       <c r="H34" s="3">
         <v>2</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>0.1</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <f t="shared" si="11"/>
         <v>0.37531515666421722</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <f t="shared" si="5"/>
         <v>0.35921060405354982</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" si="6"/>
         <v>0.39223227027636809</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U34" s="10">
+      <c r="U34" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W34" s="10">
+      <c r="W34" s="9">
         <v>800</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="Y34" s="10" t="s">
+      <c r="Y34" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z34" s="10" t="s">
+      <c r="Z34" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB34" s="10">
+      <c r="AB34" s="9">
         <v>928</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AC34" s="9">
         <v>5</v>
       </c>
-      <c r="AD34" s="10" t="s">
+      <c r="AD34" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -43546,56 +43556,56 @@
       <c r="H35" s="3">
         <v>3</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>0.2</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="9">
         <f t="shared" si="11"/>
         <v>0.27295647757397618</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="9">
         <f t="shared" si="5"/>
         <v>0.17960530202677491</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <f t="shared" si="6"/>
         <v>0.39223227027636809</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="9">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="9">
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U35" s="10">
+      <c r="U35" s="9">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W35" s="10">
+      <c r="W35" s="9">
         <v>805</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Y35" s="10" t="s">
+      <c r="Y35" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z35" s="10" t="s">
+      <c r="Z35" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AB35" s="10">
+      <c r="AB35" s="9">
         <v>805</v>
       </c>
-      <c r="AC35" s="10">
+      <c r="AC35" s="9">
         <v>6</v>
       </c>
-      <c r="AD35" s="10" t="s">
+      <c r="AD35" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -43618,25 +43628,25 @@
       <c r="H36" s="3">
         <v>4</v>
       </c>
-      <c r="W36" s="10">
+      <c r="W36" s="9">
         <v>813</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="X36" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Y36" s="10" t="s">
+      <c r="Y36" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z36" s="10" t="s">
+      <c r="Z36" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="AB36" s="10">
+      <c r="AB36" s="9">
         <v>692</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AC36" s="9">
         <v>7</v>
       </c>
-      <c r="AD36" s="10" t="s">
+      <c r="AD36" s="9" t="s">
         <v>224</v>
       </c>
     </row>
@@ -43659,53 +43669,53 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="9">
         <f>O27*$L$29</f>
         <v>3.4119559696747022E-2</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="9">
         <f>P27*$L$30</f>
         <v>2.6940795304016236E-2</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f>Q27*$L$31</f>
         <v>3.9223227027636809E-2</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="9">
         <f>R27*$L$32</f>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="9">
         <f>S27*$L$33</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T37" s="10">
+      <c r="T37" s="9">
         <f>T27*$L$34</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U37" s="10">
+      <c r="U37" s="9">
         <f>U27*$L$35</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W37" s="10">
+      <c r="W37" s="9">
         <v>900</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="X37" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="Y37" s="10" t="s">
+      <c r="Y37" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z37" s="10" t="s">
+      <c r="Z37" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AB37" s="9">
         <v>483</v>
       </c>
-      <c r="AC37" s="10">
+      <c r="AC37" s="9">
         <v>8</v>
       </c>
-      <c r="AD37" s="10" t="s">
+      <c r="AD37" s="9" t="s">
         <v>219</v>
       </c>
     </row>
@@ -43728,53 +43738,53 @@
       <c r="H38" s="3">
         <v>2</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <f t="shared" ref="O38:O45" si="12">O28*$L$29</f>
         <v>3.4119559696747022E-2</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="9">
         <f t="shared" ref="P38:P45" si="13">P28*$L$30</f>
         <v>2.6940795304016236E-2</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="9">
         <f t="shared" ref="Q38:Q45" si="14">Q28*$L$31</f>
         <v>0.11766968108291043</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="9">
         <f t="shared" ref="R38:R45" si="15">R28*$L$32</f>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="9">
         <f t="shared" ref="S38:S45" si="16">S28*$L$33</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T38" s="10">
+      <c r="T38" s="9">
         <f t="shared" ref="T38:T45" si="17">T28*$L$34</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U38" s="10">
+      <c r="U38" s="9">
         <f t="shared" ref="U38:U44" si="18">U28*$L$35</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W38" s="10">
+      <c r="W38" s="9">
         <v>928</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="X38" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="Y38" s="10" t="s">
+      <c r="Y38" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AB38" s="9">
         <v>813</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AC38" s="9">
         <v>9</v>
       </c>
-      <c r="AD38" s="10" t="s">
+      <c r="AD38" s="9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -43797,31 +43807,31 @@
       <c r="H39" s="3">
         <v>3</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="9">
         <f t="shared" si="12"/>
         <v>4.4355427605771131E-2</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="9">
         <f t="shared" si="13"/>
         <v>2.6940795304016236E-2</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <f t="shared" si="14"/>
         <v>3.9223227027636809E-2</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T39" s="10">
+      <c r="T39" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U39" s="10">
+      <c r="U39" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -43845,34 +43855,34 @@
       <c r="H40" s="3">
         <v>4</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="9">
         <f t="shared" si="12"/>
         <v>4.4355427605771131E-2</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="9">
         <f t="shared" si="13"/>
         <v>8.0822385912048697E-2</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="9">
         <f t="shared" si="14"/>
         <v>3.9223227027636809E-2</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T40" s="10">
+      <c r="T40" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U40" s="10">
+      <c r="U40" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -43896,31 +43906,31 @@
       <c r="H41" s="3">
         <v>5</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <f t="shared" si="12"/>
         <v>2.0471735818048214E-2</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="9">
         <f t="shared" si="13"/>
         <v>8.0822385912048697E-2</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <f t="shared" si="14"/>
         <v>7.8446454055273618E-2</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -43944,31 +43954,31 @@
       <c r="H42" s="3">
         <v>6</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="9">
         <f t="shared" si="12"/>
         <v>2.0471735818048214E-2</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="9">
         <f t="shared" si="13"/>
         <v>5.3881590608032472E-2</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="9">
         <f t="shared" si="14"/>
         <v>3.9223227027636809E-2</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T42" s="10">
+      <c r="T42" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U42" s="10">
+      <c r="U42" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -43992,31 +44002,31 @@
       <c r="H43" s="3">
         <v>7</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="9">
         <f t="shared" si="12"/>
         <v>2.729564775739762E-2</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="9">
         <f t="shared" si="13"/>
         <v>2.6940795304016236E-2</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="9">
         <f t="shared" si="14"/>
         <v>3.9223227027636809E-2</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S43" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T43" s="10">
+      <c r="T43" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -44040,31 +44050,31 @@
       <c r="H44" s="3">
         <v>8</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="9">
         <f t="shared" si="12"/>
         <v>3.7531515666421725E-2</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="9">
         <f t="shared" si="13"/>
         <v>5.3881590608032472E-2</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="9">
         <f t="shared" si="14"/>
         <v>7.8446454055273618E-2</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S44" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T44" s="10">
+      <c r="T44" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U44" s="10">
+      <c r="U44" s="9">
         <f t="shared" si="18"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -44088,31 +44098,31 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="9">
         <f t="shared" si="12"/>
         <v>2.729564775739762E-2</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="9">
         <f t="shared" si="13"/>
         <v>2.6940795304016236E-2</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="9">
         <f t="shared" si="14"/>
         <v>7.8446454055273618E-2</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="9">
         <f t="shared" si="15"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="S45" s="10">
+      <c r="S45" s="9">
         <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T45" s="10">
+      <c r="T45" s="9">
         <f t="shared" si="17"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U45" s="10">
+      <c r="U45" s="9">
         <f>U35*$L$35</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -44156,11 +44166,11 @@
       <c r="H47" s="3">
         <v>3</v>
       </c>
-      <c r="T47" s="10">
+      <c r="T47" s="9">
         <f>SUM(O37:T37)</f>
         <v>0.21695024869506671</v>
       </c>
-      <c r="U47" s="10">
+      <c r="U47" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44183,11 +44193,11 @@
       <c r="H48" s="3">
         <v>4</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="9">
         <f>SUM(O38:T38)</f>
         <v>0.29539670275034036</v>
       </c>
-      <c r="U48" s="10">
+      <c r="U48" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44210,11 +44220,11 @@
       <c r="H49" s="3">
         <v>5</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="9">
         <f t="shared" ref="T49:T55" si="19">SUM(O39:T39)</f>
         <v>0.22718611660409083</v>
       </c>
-      <c r="U49" s="10">
+      <c r="U49" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44237,11 +44247,11 @@
       <c r="H50" s="3">
         <v>14</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T50" s="9">
         <f t="shared" si="19"/>
         <v>0.28106770721212326</v>
       </c>
-      <c r="U50" s="10">
+      <c r="U50" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44264,20 +44274,20 @@
       <c r="H51" s="3">
         <v>13</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="9">
         <v>800</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="9">
         <v>0.22974057578537055</v>
       </c>
-      <c r="S51" s="10" t="s">
+      <c r="S51" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T51" s="9">
         <f t="shared" si="19"/>
         <v>0.2964072424520372</v>
       </c>
-      <c r="U51" s="10">
+      <c r="U51" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44300,17 +44310,17 @@
       <c r="H52" s="3">
         <v>12</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="9">
         <v>517</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="9">
         <v>0.2287300360836737</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="9">
         <f t="shared" si="19"/>
         <v>0.23024322012038415</v>
       </c>
-      <c r="U52" s="10">
+      <c r="U52" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44333,17 +44343,17 @@
       <c r="H53" s="3">
         <v>11</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="9">
         <v>900</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="9">
         <v>0.21985956032972781</v>
       </c>
-      <c r="T53" s="10">
+      <c r="T53" s="9">
         <f t="shared" si="19"/>
         <v>0.21012633675571732</v>
       </c>
-      <c r="U53" s="10">
+      <c r="U53" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44366,17 +44376,17 @@
       <c r="H54" s="3">
         <v>10</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="9">
         <v>716</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="9">
         <v>0.21440104054545661</v>
       </c>
-      <c r="T54" s="10">
+      <c r="T54" s="9">
         <f t="shared" si="19"/>
         <v>0.28652622699639446</v>
       </c>
-      <c r="U54" s="10">
+      <c r="U54" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44399,20 +44409,20 @@
       <c r="H55" s="3">
         <v>9</v>
       </c>
-      <c r="O55" s="10" t="s">
+      <c r="O55" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="9">
         <v>928</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="9">
         <v>0.18268289711668745</v>
       </c>
-      <c r="T55" s="10">
+      <c r="T55" s="9">
         <f t="shared" si="19"/>
         <v>0.2493495637833541</v>
       </c>
-      <c r="U55" s="10">
+      <c r="U55" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -44435,10 +44445,10 @@
       <c r="H56" s="3">
         <v>8</v>
       </c>
-      <c r="P56" s="10">
+      <c r="P56" s="9">
         <v>805</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="9">
         <v>0.16357655345371747</v>
       </c>
     </row>
@@ -44461,13 +44471,13 @@
       <c r="H57" s="3">
         <v>7</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="9">
         <v>692</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="9">
         <v>0.16051944993742417</v>
       </c>
-      <c r="T57" s="10">
+      <c r="T57" s="9">
         <f>T47-U47</f>
         <v>0.15028358202840003</v>
       </c>
@@ -44491,13 +44501,13 @@
       <c r="H58" s="3">
         <v>6</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="9">
         <v>483</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="9">
         <v>0.15028358202840003</v>
       </c>
-      <c r="T58" s="10">
+      <c r="T58" s="9">
         <f t="shared" ref="T58:T65" si="20">T48-U48</f>
         <v>0.2287300360836737</v>
       </c>
@@ -44521,13 +44531,13 @@
       <c r="H59" s="3">
         <v>5</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="9">
         <v>813</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="9">
         <v>0.14345967008905064</v>
       </c>
-      <c r="T59" s="10">
+      <c r="T59" s="9">
         <f t="shared" si="20"/>
         <v>0.16051944993742417</v>
       </c>
@@ -44551,10 +44561,10 @@
       <c r="H60" s="3">
         <v>4</v>
       </c>
-      <c r="S60" s="10" t="s">
+      <c r="S60" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="T60" s="10">
+      <c r="T60" s="9">
         <f t="shared" si="20"/>
         <v>0.21440104054545661</v>
       </c>
@@ -44578,7 +44588,7 @@
       <c r="H61" s="3">
         <v>3</v>
       </c>
-      <c r="T61" s="10">
+      <c r="T61" s="9">
         <f t="shared" si="20"/>
         <v>0.22974057578537055</v>
       </c>
@@ -44602,7 +44612,7 @@
       <c r="H62" s="3">
         <v>2</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T62" s="9">
         <f t="shared" si="20"/>
         <v>0.16357655345371747</v>
       </c>
@@ -44626,7 +44636,7 @@
       <c r="H63" s="3">
         <v>1</v>
       </c>
-      <c r="T63" s="10">
+      <c r="T63" s="9">
         <f t="shared" si="20"/>
         <v>0.14345967008905064</v>
       </c>
@@ -44641,15 +44651,457 @@
       <c r="E64" s="3">
         <v>2</v>
       </c>
-      <c r="T64" s="10">
+      <c r="T64" s="9">
         <f t="shared" si="20"/>
         <v>0.21985956032972781</v>
       </c>
     </row>
-    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T65" s="10">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="T65" s="9">
         <f t="shared" si="20"/>
         <v>0.18268289711668745</v>
+      </c>
+    </row>
+    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="P67" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E69" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E70" s="20">
+        <v>300</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="G70" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="20">
+        <v>7</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" s="21">
+        <v>450000</v>
+      </c>
+      <c r="N70" s="9">
+        <v>300</v>
+      </c>
+      <c r="O70" s="9">
+        <v>13</v>
+      </c>
+      <c r="P70" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>3</v>
+      </c>
+      <c r="R70" s="9">
+        <v>2</v>
+      </c>
+      <c r="S70" s="9">
+        <v>4</v>
+      </c>
+      <c r="T70" s="9">
+        <v>4</v>
+      </c>
+      <c r="U70" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E71" s="20">
+        <v>486</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="G71" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" s="20">
+        <v>7</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" s="21">
+        <v>450000</v>
+      </c>
+      <c r="N71" s="9">
+        <v>486</v>
+      </c>
+      <c r="O71" s="9">
+        <v>13</v>
+      </c>
+      <c r="P71" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>3</v>
+      </c>
+      <c r="R71" s="9">
+        <v>2</v>
+      </c>
+      <c r="S71" s="9">
+        <v>4</v>
+      </c>
+      <c r="T71" s="9">
+        <v>4</v>
+      </c>
+      <c r="U71" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O73" s="9">
+        <f>O70^2</f>
+        <v>169</v>
+      </c>
+      <c r="P73" s="9">
+        <f>P70^2</f>
+        <v>9</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" ref="Q73:U74" si="21">Q70^2</f>
+        <v>9</v>
+      </c>
+      <c r="R73" s="9">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="S73" s="9">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T73" s="9">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U73" s="9">
+        <f t="shared" si="21"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O74" s="9">
+        <f>O71^2</f>
+        <v>169</v>
+      </c>
+      <c r="P74" s="9">
+        <f>P71^2</f>
+        <v>9</v>
+      </c>
+      <c r="Q74" s="9">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="R74" s="9">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="9">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T74" s="9">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U74" s="9">
+        <f t="shared" si="21"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O75" s="9">
+        <f>SUM(O73:O74)</f>
+        <v>338</v>
+      </c>
+      <c r="P75" s="9">
+        <f t="shared" ref="P75:U75" si="22">SUM(P73:P74)</f>
+        <v>18</v>
+      </c>
+      <c r="Q75" s="9">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="R75" s="9">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="S75" s="9">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="T75" s="9">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="U75" s="9">
+        <f t="shared" si="22"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O76" s="9">
+        <f>SQRT(O75)</f>
+        <v>18.384776310850235</v>
+      </c>
+      <c r="P76" s="9">
+        <f t="shared" ref="P76:U76" si="23">SQRT(P75)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="Q76" s="9">
+        <f t="shared" si="23"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R76" s="9">
+        <f t="shared" si="23"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S76" s="9">
+        <f t="shared" si="23"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="T76" s="9">
+        <f t="shared" si="23"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="U76" s="9">
+        <f t="shared" si="23"/>
+        <v>15.556349186104045</v>
+      </c>
+    </row>
+    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O78" s="9">
+        <f>O70/$O$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="P78" s="9">
+        <f>P70/$P$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="Q78" s="9">
+        <f>Q70/$Q$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="R78" s="9">
+        <f>R70/$R$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="S78" s="9">
+        <f>S70/$S$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="T78" s="9">
+        <f>T70/$T$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="U78" s="9">
+        <f>U70/$U$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="79" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O79" s="9">
+        <f>O71/$O$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="P79" s="9">
+        <f>P71/$P$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="Q79" s="9">
+        <f>Q71/$Q$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="R79" s="9">
+        <f>R71/$R$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="S79" s="9">
+        <f>S71/$S$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="T79" s="9">
+        <f>T71/$T$76</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="U79" s="9">
+        <f>U71/$U$76</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="80" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="N80" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="U80" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N81" s="9">
+        <v>300</v>
+      </c>
+      <c r="O81" s="9">
+        <f>O78*$L$29</f>
+        <v>7.0710678118654766E-2</v>
+      </c>
+      <c r="P81" s="9">
+        <f>P78*$L$30</f>
+        <v>0.10606601717798213</v>
+      </c>
+      <c r="Q81" s="9">
+        <f>Q78*$L$31</f>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="R81" s="9">
+        <f>R78*$L$32</f>
+        <v>0.10606601717798211</v>
+      </c>
+      <c r="S81" s="9">
+        <f>S78*$L$33</f>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="T81" s="9">
+        <f>T78*$L$34</f>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="U81" s="9">
+        <f>U78*$L$35</f>
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="82" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N82" s="9">
+        <v>486</v>
+      </c>
+      <c r="O82" s="9">
+        <f>O79*$L$29</f>
+        <v>7.0710678118654766E-2</v>
+      </c>
+      <c r="P82" s="9">
+        <f>P79*$L$30</f>
+        <v>0.10606601717798213</v>
+      </c>
+      <c r="Q82" s="9">
+        <f>Q79*$L$31</f>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="R82" s="9">
+        <f>R79*$L$32</f>
+        <v>0.10606601717798211</v>
+      </c>
+      <c r="S82" s="9">
+        <f>S79*$L$33</f>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="T82" s="9">
+        <f t="shared" ref="T82:T83" si="24">T79*$L$34</f>
+        <v>7.0710678118654752E-2</v>
+      </c>
+      <c r="U82" s="9">
+        <f>U79*$L$35</f>
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="84" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="T84" s="9">
+        <f>SUM(O81:T81)</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="U84" s="9">
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="85" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="T85" s="9">
+        <f>SUM(O82:T82)</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="U85" s="9">
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="87" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="T87" s="9">
+        <f>T84-U84</f>
+        <v>0.42426406871192845</v>
+      </c>
+    </row>
+    <row r="88" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="T88" s="9">
+        <f>T85-U85</f>
+        <v>0.42426406871192845</v>
       </c>
     </row>
   </sheetData>
@@ -44660,6 +45112,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44667,3302 +45120,3302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87420A14-F1DC-4AA8-B881-E2F03F169668}">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="18"/>
-    <col min="4" max="4" width="73.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="27.42578125" style="18"/>
+    <col min="1" max="1" width="34.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="17"/>
+    <col min="4" max="4" width="73.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="27.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="D4" s="16" t="s">
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="D9" s="16" t="s">
+    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="D15" s="16" t="s">
+    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>2</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>3</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>4</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="D23" s="16" t="s">
+    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="D23" s="15" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>2</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>3</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>4</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>5</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="D30" s="16" t="s">
+    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="D30" s="15" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>1</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>2</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="D35" s="16" t="s">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="D35" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>1</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>2</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>3</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="14"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="D41" s="16" t="s">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="D41" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>1</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>2</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>3</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="14"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="D47" s="16" t="s">
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="D47" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="F47" s="19"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>2</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>3</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="14"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="D53" s="16" t="s">
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="D53" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>1</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>2</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>3</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>4</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>5</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>6</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="D61" s="16" t="s">
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="D61" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>1</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>2</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="14"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="D66" s="16" t="s">
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="D66" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="F66" s="19"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>1</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+      <c r="B68" s="16">
         <v>2</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="14"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="D71" s="16" t="s">
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="D71" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F71" s="19"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+      <c r="B72" s="16">
         <v>1</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="17">
+      <c r="B73" s="16">
         <v>2</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F74" s="14"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="D76" s="16" t="s">
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="D76" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="F76" s="19"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="17">
+      <c r="B77" s="16">
         <v>1</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="17">
+      <c r="B78" s="16">
         <v>2</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="14"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="D81" s="16" t="s">
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="D81" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F81" s="19"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="17">
+      <c r="B82" s="16">
         <v>1</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="17">
+      <c r="B83" s="16">
         <v>2</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="17">
+      <c r="B84" s="16">
         <v>3</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="17">
+      <c r="B85" s="16">
         <v>4</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="17">
+      <c r="B86" s="16">
         <v>5</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>6</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>7</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>8</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>9</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>10</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="D93" s="16" t="s">
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="D93" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="F93" s="19"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>1</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="17">
+      <c r="B95" s="16">
         <v>2</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="14"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="D98" s="16" t="s">
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="D98" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="F98" s="19"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="17">
+      <c r="B99" s="16">
         <v>1</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F99" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="17">
+      <c r="B100" s="16">
         <v>2</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="14"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="D103" s="16" t="s">
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="D103" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="F103" s="19"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="17">
+      <c r="B104" s="16">
         <v>1</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="17">
+      <c r="B105" s="16">
         <v>2</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F106" s="14"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="D108" s="16" t="s">
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="D108" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="F108" s="19"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="17">
+      <c r="B109" s="16">
         <v>1</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F109" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="17">
+      <c r="B110" s="16">
         <v>2</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>3</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>4</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>5</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="14"/>
-    </row>
-    <row r="115" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="D115" s="16" t="s">
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="D115" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="F115" s="19"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>1</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>2</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="F117" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="14"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="D120" s="16" t="s">
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="D120" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F120" s="19"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="17">
+      <c r="B121" s="16">
         <v>1</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="17">
+      <c r="B122" s="16">
         <v>2</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>3</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>4</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>5</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>6</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="14"/>
-    </row>
-    <row r="128" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="D128" s="16" t="s">
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="D128" s="15" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="17">
+      <c r="B129" s="16">
         <v>1</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="17">
+      <c r="B130" s="16">
         <v>2</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="14"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="14"/>
-    </row>
-    <row r="133" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="D133" s="16" t="s">
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="D133" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="F133" s="19"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="17">
+      <c r="B134" s="16">
         <v>1</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="17">
+      <c r="B135" s="16">
         <v>2</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="17">
+      <c r="B136" s="16">
         <v>3</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="17">
+      <c r="B137" s="16">
         <v>4</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F137" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="17">
+      <c r="B138" s="16">
         <v>5</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F138" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="17">
+      <c r="B139" s="16">
         <v>6</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="17">
+      <c r="B140" s="16">
         <v>7</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F140" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="17">
+      <c r="B141" s="16">
         <v>8</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F141" s="14" t="s">
+      <c r="F141" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F142" s="14"/>
-    </row>
-    <row r="143" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="D143" s="16" t="s">
+      <c r="F142" s="13"/>
+    </row>
+    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+      <c r="D143" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="F143" s="19"/>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="17">
+      <c r="B144" s="16">
         <v>1</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F144" s="14" t="s">
+      <c r="F144" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>2</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F145" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F146" s="14"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="D148" s="16" t="s">
+      <c r="F147" s="13"/>
+    </row>
+    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+      <c r="D148" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F148" s="19"/>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="17">
+      <c r="B149" s="16">
         <v>1</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F149" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="17">
+      <c r="B150" s="16">
         <v>2</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="F150" s="14" t="s">
+      <c r="F150" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="17">
+      <c r="B151" s="16">
         <v>3</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F151" s="14" t="s">
+      <c r="F151" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="17">
+      <c r="B152" s="16">
         <v>4</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F152" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="17">
+      <c r="B153" s="16">
         <v>5</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="17">
+      <c r="B154" s="16">
         <v>6</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="F154" s="14" t="s">
+      <c r="F154" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F155" s="14"/>
-    </row>
-    <row r="156" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
-      <c r="D156" s="16" t="s">
+      <c r="F155" s="13"/>
+    </row>
+    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+      <c r="D156" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="F156" s="19"/>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="17">
+      <c r="B157" s="16">
         <v>1</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F157" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="17">
+      <c r="B158" s="16">
         <v>2</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="17">
+      <c r="B159" s="16">
         <v>3</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F159" s="14" t="s">
+      <c r="F159" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="17">
+      <c r="B160" s="16">
         <v>4</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F160" s="14" t="s">
+      <c r="F160" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="17">
+      <c r="B161" s="16">
         <v>5</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F161" s="14" t="s">
+      <c r="F161" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="17">
+      <c r="B162" s="16">
         <v>6</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="F162" s="14" t="s">
+      <c r="F162" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="17">
+      <c r="B163" s="16">
         <v>7</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="E163" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F163" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F164" s="14"/>
-    </row>
-    <row r="165" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
-      <c r="D165" s="16" t="s">
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="D165" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="F165" s="19"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="17">
+      <c r="B166" s="16">
         <v>1</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="F166" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="17">
+      <c r="B167" s="16">
         <v>2</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F167" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="17">
+      <c r="B168" s="16">
         <v>3</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F168" s="14" t="s">
+      <c r="F168" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="17">
+      <c r="B169" s="16">
         <v>4</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="F169" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="17">
+      <c r="B170" s="16">
         <v>5</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="F170" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="17">
+      <c r="B171" s="16">
         <v>6</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="E171" s="18" t="s">
+      <c r="E171" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="F171" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="17">
+      <c r="B172" s="16">
         <v>7</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="F172" s="14" t="s">
+      <c r="F172" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="17">
+      <c r="B173" s="16">
         <v>8</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="E173" s="18" t="s">
+      <c r="E173" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="F173" s="14" t="s">
+      <c r="F173" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="17">
+      <c r="B174" s="16">
         <v>9</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="F174" s="14" t="s">
+      <c r="F174" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F175" s="14"/>
-    </row>
-    <row r="176" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-      <c r="B176" s="15"/>
-      <c r="D176" s="16" t="s">
+      <c r="F175" s="13"/>
+    </row>
+    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="D176" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="F176" s="19"/>
+      <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="17">
+      <c r="B177" s="16">
         <v>1</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="F177" s="14" t="s">
+      <c r="F177" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="17">
+      <c r="B178" s="16">
         <v>2</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="F178" s="14" t="s">
+      <c r="F178" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="14"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F180" s="14"/>
-    </row>
-    <row r="181" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
-      <c r="B181" s="15"/>
-      <c r="D181" s="16" t="s">
+      <c r="F180" s="13"/>
+    </row>
+    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="D181" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="F181" s="19"/>
+      <c r="F181" s="18"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="17">
+      <c r="B182" s="16">
         <v>1</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="F182" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="17">
+      <c r="B183" s="16">
         <v>2</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="F183" s="14" t="s">
+      <c r="F183" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="17">
+      <c r="B184" s="16">
         <v>3</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="F184" s="14" t="s">
+      <c r="F184" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="17">
+      <c r="B185" s="16">
         <v>4</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="F185" s="14" t="s">
+      <c r="F185" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F186" s="14"/>
-    </row>
-    <row r="187" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
-      <c r="D187" s="16" t="s">
+      <c r="F186" s="13"/>
+    </row>
+    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="D187" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="F187" s="19"/>
+      <c r="F187" s="18"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B188" s="17">
+      <c r="B188" s="16">
         <v>1</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="F188" s="14" t="s">
+      <c r="F188" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B189" s="17">
+      <c r="B189" s="16">
         <v>2</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="F189" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="14"/>
-    </row>
-    <row r="191" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
-      <c r="D191" s="16" t="s">
+      <c r="F190" s="13"/>
+    </row>
+    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="D191" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="F191" s="19"/>
+      <c r="F191" s="18"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="17">
+      <c r="B192" s="16">
         <v>1</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F192" s="14" t="s">
+      <c r="F192" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="17">
+      <c r="B193" s="16">
         <v>2</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="E193" s="18" t="s">
+      <c r="E193" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="F193" s="14" t="s">
+      <c r="F193" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="17">
+      <c r="B194" s="16">
         <v>3</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E194" s="18" t="s">
+      <c r="E194" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F194" s="14" t="s">
+      <c r="F194" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="17">
+      <c r="B195" s="16">
         <v>4</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F195" s="14" t="s">
+      <c r="F195" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="17">
+      <c r="B196" s="16">
         <v>5</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F196" s="14" t="s">
+      <c r="F196" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="17">
+      <c r="B197" s="16">
         <v>6</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E197" s="18" t="s">
+      <c r="E197" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F197" s="14" t="s">
+      <c r="F197" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="17">
+      <c r="B198" s="16">
         <v>7</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D198" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="E198" s="18" t="s">
+      <c r="E198" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="F198" s="14" t="s">
+      <c r="F198" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="17">
+      <c r="B199" s="16">
         <v>8</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="E199" s="18" t="s">
+      <c r="E199" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="F199" s="14" t="s">
+      <c r="F199" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="17">
+      <c r="B200" s="16">
         <v>9</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E200" s="18" t="s">
+      <c r="E200" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="F200" s="14" t="s">
+      <c r="F200" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="14"/>
-    </row>
-    <row r="202" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
-      <c r="D202" s="16" t="s">
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="D202" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="F202" s="19"/>
+      <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="17">
+      <c r="B203" s="16">
         <v>1</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D203" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="E203" s="18" t="s">
+      <c r="E203" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="F203" s="14" t="s">
+      <c r="F203" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="17">
+      <c r="B204" s="16">
         <v>2</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E204" s="18" t="s">
+      <c r="E204" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="F204" s="14" t="s">
+      <c r="F204" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F205" s="14"/>
-    </row>
-    <row r="206" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
-      <c r="D206" s="16" t="s">
+      <c r="F205" s="13"/>
+    </row>
+    <row r="206" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14"/>
+      <c r="B206" s="14"/>
+      <c r="D206" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="F206" s="19"/>
+      <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="17">
+      <c r="B207" s="16">
         <v>1</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E207" s="18" t="s">
+      <c r="E207" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F207" s="14" t="s">
+      <c r="F207" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="17">
+      <c r="B208" s="16">
         <v>2</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="E208" s="18" t="s">
+      <c r="E208" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F208" s="14" t="s">
+      <c r="F208" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="17">
+      <c r="B209" s="16">
         <v>3</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D209" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E209" s="18" t="s">
+      <c r="E209" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F209" s="14" t="s">
+      <c r="F209" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="17">
+      <c r="B210" s="16">
         <v>4</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D210" s="18" t="s">
+      <c r="D210" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E210" s="18" t="s">
+      <c r="E210" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F210" s="14" t="s">
+      <c r="F210" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="17">
+      <c r="B211" s="16">
         <v>5</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="E211" s="18" t="s">
+      <c r="E211" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="F211" s="14" t="s">
+      <c r="F211" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="17">
+      <c r="B212" s="16">
         <v>6</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D212" s="18" t="s">
+      <c r="D212" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="E212" s="18" t="s">
+      <c r="E212" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="F212" s="14" t="s">
+      <c r="F212" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="17">
+      <c r="B213" s="16">
         <v>7</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D213" s="18" t="s">
+      <c r="D213" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E213" s="18" t="s">
+      <c r="E213" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F213" s="14" t="s">
+      <c r="F213" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="17">
+      <c r="B214" s="16">
         <v>8</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D214" s="18" t="s">
+      <c r="D214" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="E214" s="18" t="s">
+      <c r="E214" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="F214" s="14" t="s">
+      <c r="F214" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="17">
+      <c r="B215" s="16">
         <v>9</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D215" s="18" t="s">
+      <c r="D215" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="E215" s="18" t="s">
+      <c r="E215" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F215" s="14" t="s">
+      <c r="F215" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F216" s="14"/>
-    </row>
-    <row r="217" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="15"/>
-      <c r="B217" s="15"/>
-      <c r="D217" s="16" t="s">
+      <c r="F216" s="13"/>
+    </row>
+    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+      <c r="D217" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="F217" s="19"/>
+      <c r="F217" s="18"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="17">
+      <c r="B218" s="16">
         <v>1</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D218" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E218" s="18" t="s">
+      <c r="E218" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F218" s="14" t="s">
+      <c r="F218" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B219" s="17">
+      <c r="B219" s="16">
         <v>2</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D219" s="18" t="s">
+      <c r="D219" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="E219" s="18" t="s">
+      <c r="E219" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="F219" s="14" t="s">
+      <c r="F219" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F220" s="14"/>
+      <c r="F220" s="13"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F221" s="14"/>
-    </row>
-    <row r="222" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
-      <c r="D222" s="16" t="s">
+      <c r="F221" s="13"/>
+    </row>
+    <row r="222" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
+      <c r="D222" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="F222" s="19"/>
+      <c r="F222" s="18"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="17">
+      <c r="B223" s="16">
         <v>1</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D223" s="18" t="s">
+      <c r="D223" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E223" s="18" t="s">
+      <c r="E223" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F223" s="14" t="s">
+      <c r="F223" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B224" s="17">
+      <c r="B224" s="16">
         <v>2</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="D224" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E224" s="18" t="s">
+      <c r="E224" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F224" s="14" t="s">
+      <c r="F224" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="17">
+      <c r="B225" s="16">
         <v>3</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D225" s="18" t="s">
+      <c r="D225" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E225" s="18" t="s">
+      <c r="E225" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F225" s="14" t="s">
+      <c r="F225" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="17">
+      <c r="B226" s="16">
         <v>4</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="E226" s="18" t="s">
+      <c r="E226" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="F226" s="14" t="s">
+      <c r="F226" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F227" s="14"/>
-    </row>
-    <row r="228" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="15"/>
-      <c r="B228" s="15"/>
-      <c r="D228" s="16" t="s">
+      <c r="F227" s="13"/>
+    </row>
+    <row r="228" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="14"/>
+      <c r="D228" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="F228" s="19"/>
+      <c r="F228" s="18"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B229" s="17">
+      <c r="B229" s="16">
         <v>1</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="D229" s="18" t="s">
+      <c r="D229" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="E229" s="18" t="s">
+      <c r="E229" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="F229" s="14" t="s">
+      <c r="F229" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B230" s="17">
+      <c r="B230" s="16">
         <v>2</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D230" s="18" t="s">
+      <c r="D230" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E230" s="18" t="s">
+      <c r="E230" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="F230" s="14" t="s">
+      <c r="F230" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F231" s="14"/>
+      <c r="F231" s="13"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F232" s="14"/>
-    </row>
-    <row r="233" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="15"/>
-      <c r="B233" s="15"/>
-      <c r="D233" s="16" t="s">
+      <c r="F232" s="13"/>
+    </row>
+    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="14"/>
+      <c r="B233" s="14"/>
+      <c r="D233" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="F233" s="19"/>
+      <c r="F233" s="18"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B234" s="17">
+      <c r="B234" s="16">
         <v>1</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="D234" s="18" t="s">
+      <c r="D234" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E234" s="18" t="s">
+      <c r="E234" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F234" s="14" t="s">
+      <c r="F234" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="17">
+      <c r="B235" s="16">
         <v>2</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="D235" s="18" t="s">
+      <c r="D235" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="E235" s="18" t="s">
+      <c r="E235" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="F235" s="14" t="s">
+      <c r="F235" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="17">
+      <c r="B236" s="16">
         <v>3</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D236" s="18" t="s">
+      <c r="D236" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E236" s="18" t="s">
+      <c r="E236" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F236" s="14" t="s">
+      <c r="F236" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="17">
+      <c r="B237" s="16">
         <v>4</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E237" s="18" t="s">
+      <c r="E237" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F237" s="14" t="s">
+      <c r="F237" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="17">
+      <c r="B238" s="16">
         <v>5</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D238" s="18" t="s">
+      <c r="D238" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E238" s="18" t="s">
+      <c r="E238" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F238" s="14" t="s">
+      <c r="F238" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B239" s="17">
+      <c r="B239" s="16">
         <v>6</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D239" s="18" t="s">
+      <c r="D239" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="E239" s="18" t="s">
+      <c r="E239" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="F239" s="14" t="s">
+      <c r="F239" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="17">
+      <c r="B240" s="16">
         <v>7</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="D240" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="E240" s="18" t="s">
+      <c r="E240" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="F240" s="14" t="s">
+      <c r="F240" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F241" s="14"/>
-    </row>
-    <row r="242" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="15"/>
-      <c r="B242" s="15"/>
-      <c r="D242" s="16" t="s">
+      <c r="F241" s="13"/>
+    </row>
+    <row r="242" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+      <c r="D242" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="F242" s="19"/>
+      <c r="F242" s="18"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B243" s="17">
+      <c r="B243" s="16">
         <v>1</v>
       </c>
-      <c r="C243" s="18" t="s">
+      <c r="C243" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="D243" s="18" t="s">
+      <c r="D243" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="E243" s="18" t="s">
+      <c r="E243" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="F243" s="14" t="s">
+      <c r="F243" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="17">
+      <c r="B244" s="16">
         <v>2</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D244" s="18" t="s">
+      <c r="D244" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="E244" s="18" t="s">
+      <c r="E244" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="F244" s="14" t="s">
+      <c r="F244" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F245" s="14"/>
+      <c r="F245" s="13"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="14"/>
-    </row>
-    <row r="247" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
-      <c r="D247" s="16" t="s">
+      <c r="F246" s="13"/>
+    </row>
+    <row r="247" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
+      <c r="D247" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="F247" s="19"/>
+      <c r="F247" s="18"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="17">
+      <c r="B248" s="16">
         <v>1</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="D248" s="18" t="s">
+      <c r="D248" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E248" s="18" t="s">
+      <c r="E248" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="F248" s="14" t="s">
+      <c r="F248" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="17">
+      <c r="B249" s="16">
         <v>2</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="D249" s="18" t="s">
+      <c r="D249" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="E249" s="18" t="s">
+      <c r="E249" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="F249" s="14" t="s">
+      <c r="F249" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B250" s="17">
+      <c r="B250" s="16">
         <v>3</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D250" s="18" t="s">
+      <c r="D250" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E250" s="18" t="s">
+      <c r="E250" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F250" s="14" t="s">
+      <c r="F250" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B251" s="17">
+      <c r="B251" s="16">
         <v>4</v>
       </c>
-      <c r="C251" s="18" t="s">
+      <c r="C251" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D251" s="18" t="s">
+      <c r="D251" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="E251" s="18" t="s">
+      <c r="E251" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="F251" s="14" t="s">
+      <c r="F251" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="17">
+      <c r="B252" s="16">
         <v>5</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E252" s="18" t="s">
+      <c r="E252" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="F252" s="14" t="s">
+      <c r="F252" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B253" s="17">
+      <c r="B253" s="16">
         <v>6</v>
       </c>
-      <c r="C253" s="18" t="s">
+      <c r="C253" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="D253" s="18" t="s">
+      <c r="D253" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="E253" s="18" t="s">
+      <c r="E253" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="F253" s="14" t="s">
+      <c r="F253" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B254" s="17">
+      <c r="B254" s="16">
         <v>7</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D254" s="18" t="s">
+      <c r="D254" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="E254" s="18" t="s">
+      <c r="E254" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="F254" s="14" t="s">
+      <c r="F254" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B255" s="17">
+      <c r="B255" s="16">
         <v>8</v>
       </c>
-      <c r="C255" s="18" t="s">
+      <c r="C255" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D255" s="18" t="s">
+      <c r="D255" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="E255" s="18" t="s">
+      <c r="E255" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="F255" s="14" t="s">
+      <c r="F255" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B256" s="17">
+      <c r="B256" s="16">
         <v>9</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="D256" s="18" t="s">
+      <c r="D256" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="E256" s="18" t="s">
+      <c r="E256" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="F256" s="14" t="s">
+      <c r="F256" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F257" s="14"/>
-    </row>
-    <row r="258" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
-      <c r="D258" s="16" t="s">
+      <c r="F257" s="13"/>
+    </row>
+    <row r="258" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
+      <c r="D258" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="F258" s="19"/>
+      <c r="F258" s="18"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B259" s="17">
+      <c r="B259" s="16">
         <v>1</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="E259" s="18" t="s">
+      <c r="E259" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="F259" s="14" t="s">
+      <c r="F259" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="17">
+      <c r="B260" s="16">
         <v>2</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E260" s="18" t="s">
+      <c r="E260" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="F260" s="14" t="s">
+      <c r="F260" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F261" s="14"/>
+      <c r="F261" s="13"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F262" s="14"/>
-    </row>
-    <row r="263" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
-      <c r="D263" s="16" t="s">
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="D263" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="F263" s="19"/>
+      <c r="F263" s="18"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B264" s="17">
+      <c r="B264" s="16">
         <v>1</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="E264" s="18" t="s">
+      <c r="E264" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F264" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B265" s="17">
+      <c r="B265" s="16">
         <v>2</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="E265" s="18" t="s">
+      <c r="E265" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="F265" s="14" t="s">
+      <c r="F265" s="13" t="s">
         <v>247</v>
       </c>
     </row>

--- a/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
+++ b/public/DatabaseRecovery/sql/Rekap Data Rental Mobil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNL\MK\Tugas Akhir\TGA-Code\tga-rental-mobil\public\DatabaseRecovery\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA20BC53-B2D3-478F-8279-E9B888899530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07203F4B-4D52-4757-AA3C-60D7EC44E7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{0FFBED60-907F-4311-94AD-12BB782D49C3}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="560">
   <si>
     <t>Nama Pemilik</t>
   </si>
@@ -1756,6 +1756,18 @@
   </si>
   <si>
     <t>Avanza Veloz</t>
+  </si>
+  <si>
+    <t>Kondisi Mesin</t>
+  </si>
+  <si>
+    <t>Muatan Penumpang</t>
+  </si>
+  <si>
+    <t>Jenis bbm</t>
+  </si>
+  <si>
+    <t>Kapasitas Mesin / CC</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1882,20 +1894,164 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7326,19 +7482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Y1" s="2">
         <f ca="1">INDEX($Y$4:$Y$6,RANDBETWEEN(1,COUNTA($Y$4:$Y$6)),1)</f>
         <v>27</v>
@@ -7353,11 +7509,11 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -8165,11 +8321,11 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="F13" s="2">
         <v>111</v>
       </c>
@@ -40513,52 +40669,52 @@
     <mergeCell ref="F1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C29">
-    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C65">
-    <cfRule type="duplicateValues" dxfId="31" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T5">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T9">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T12">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41447,49 +41603,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B48:B52">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41497,10 +41653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE0924F-CC00-40E1-9806-43B4F40D52EF}">
-  <dimension ref="B1:AZ88"/>
+  <dimension ref="B1:AZ165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T87" sqref="T87:T88"/>
+    <sheetView tabSelected="1" topLeftCell="C147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43250,24 +43406,6 @@
       </c>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="L31" s="9">
         <v>0.2</v>
       </c>
@@ -43322,24 +43460,6 @@
       </c>
     </row>
     <row r="32" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>34</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3</v>
-      </c>
       <c r="L32" s="9">
         <v>0.15</v>
       </c>
@@ -43393,25 +43513,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>35</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+    <row r="33" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L33" s="9">
         <v>0.1</v>
       </c>
@@ -43465,25 +43567,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>36</v>
-      </c>
-      <c r="G34" s="3">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
+    <row r="34" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L34" s="9">
         <v>0.1</v>
       </c>
@@ -43537,25 +43621,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>37</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3</v>
-      </c>
+    <row r="35" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L35" s="9">
         <v>0.2</v>
       </c>
@@ -43609,25 +43675,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>38</v>
-      </c>
-      <c r="G36" s="3">
-        <v>16</v>
-      </c>
-      <c r="H36" s="3">
-        <v>4</v>
-      </c>
+    <row r="36" spans="12:30" x14ac:dyDescent="0.25">
       <c r="W36" s="9">
         <v>813</v>
       </c>
@@ -43650,25 +43698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>39</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
+    <row r="37" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O37" s="9">
         <f>O27*$L$29</f>
         <v>3.4119559696747022E-2</v>
@@ -43719,25 +43749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
-        <v>7</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>40</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
+    <row r="38" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O38" s="9">
         <f t="shared" ref="O38:O45" si="12">O28*$L$29</f>
         <v>3.4119559696747022E-2</v>
@@ -43788,25 +43800,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>41</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="3">
-        <v>3</v>
-      </c>
+    <row r="39" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O39" s="9">
         <f t="shared" si="12"/>
         <v>4.4355427605771131E-2</v>
@@ -43836,25 +43830,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>42</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4</v>
-      </c>
+    <row r="40" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N40" s="9" t="s">
         <v>236</v>
       </c>
@@ -43887,25 +43863,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>43</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5</v>
-      </c>
+    <row r="41" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O41" s="9">
         <f t="shared" si="12"/>
         <v>2.0471735818048214E-2</v>
@@ -43935,25 +43893,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>44</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6</v>
-      </c>
+    <row r="42" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O42" s="9">
         <f t="shared" si="12"/>
         <v>2.0471735818048214E-2</v>
@@ -43983,25 +43923,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="3">
-        <v>7</v>
-      </c>
+    <row r="43" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O43" s="9">
         <f t="shared" si="12"/>
         <v>2.729564775739762E-2</v>
@@ -44031,25 +43953,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>46</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8</v>
-      </c>
+    <row r="44" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O44" s="9">
         <f t="shared" si="12"/>
         <v>3.7531515666421725E-2</v>
@@ -44079,25 +43983,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
-        <v>14</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>47</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
+    <row r="45" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O45" s="9">
         <f t="shared" si="12"/>
         <v>2.729564775739762E-2</v>
@@ -44127,45 +44013,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
-        <v>15</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>48</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2010</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>49</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3</v>
-      </c>
+    <row r="47" spans="12:30" x14ac:dyDescent="0.25">
       <c r="T47" s="9">
         <f>SUM(O37:T37)</f>
         <v>0.21695024869506671</v>
@@ -44174,25 +44022,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
-        <v>17</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="2">
-        <v>50</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4</v>
-      </c>
+    <row r="48" spans="12:30" x14ac:dyDescent="0.25">
       <c r="T48" s="9">
         <f>SUM(O38:T38)</f>
         <v>0.29539670275034036</v>
@@ -44201,25 +44031,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
-        <v>18</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2">
-        <v>51</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5</v>
-      </c>
+    <row r="49" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T49" s="9">
         <f t="shared" ref="T49:T55" si="19">SUM(O39:T39)</f>
         <v>0.22718611660409083</v>
@@ -44228,25 +44040,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
-        <v>19</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2">
-        <v>52</v>
-      </c>
-      <c r="G50" s="7">
-        <v>300000</v>
-      </c>
-      <c r="H50" s="3">
-        <v>14</v>
-      </c>
+    <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T50" s="9">
         <f t="shared" si="19"/>
         <v>0.28106770721212326</v>
@@ -44255,25 +44049,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C51" s="2">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5</v>
-      </c>
-      <c r="F51" s="2">
-        <v>53</v>
-      </c>
-      <c r="G51" s="7">
-        <v>350000</v>
-      </c>
-      <c r="H51" s="3">
-        <v>13</v>
-      </c>
+    <row r="51" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P51" s="9">
         <v>800</v>
       </c>
@@ -44291,25 +44067,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C52" s="2">
-        <v>21</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2">
-        <v>54</v>
-      </c>
-      <c r="G52" s="7">
-        <v>400000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>12</v>
-      </c>
+    <row r="52" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P52" s="9">
         <v>517</v>
       </c>
@@ -44324,25 +44082,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C53" s="2">
-        <v>22</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2016</v>
-      </c>
-      <c r="E53" s="3">
-        <v>7</v>
-      </c>
-      <c r="F53" s="2">
-        <v>55</v>
-      </c>
-      <c r="G53" s="7">
-        <v>450000</v>
-      </c>
-      <c r="H53" s="3">
-        <v>11</v>
-      </c>
+    <row r="53" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P53" s="9">
         <v>900</v>
       </c>
@@ -44357,25 +44097,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C54" s="2">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E54" s="3">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2">
-        <v>56</v>
-      </c>
-      <c r="G54" s="7">
-        <v>500000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10</v>
-      </c>
+    <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P54" s="9">
         <v>716</v>
       </c>
@@ -44390,25 +44112,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="2">
-        <v>24</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E55" s="3">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2">
-        <v>57</v>
-      </c>
-      <c r="G55" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H55" s="3">
-        <v>9</v>
-      </c>
+    <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55" s="9" t="s">
         <v>237</v>
       </c>
@@ -44426,25 +44130,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C56" s="2">
-        <v>25</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E56" s="3">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2">
-        <v>58</v>
-      </c>
-      <c r="G56" s="7">
-        <v>600000</v>
-      </c>
-      <c r="H56" s="3">
-        <v>8</v>
-      </c>
+    <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P56" s="9">
         <v>805</v>
       </c>
@@ -44452,25 +44138,7 @@
         <v>0.16357655345371747</v>
       </c>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="2">
-        <v>26</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E57" s="3">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2">
-        <v>59</v>
-      </c>
-      <c r="G57" s="7">
-        <v>650000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7</v>
-      </c>
+    <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P57" s="9">
         <v>692</v>
       </c>
@@ -44482,25 +44150,7 @@
         <v>0.15028358202840003</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C58" s="2">
-        <v>27</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E58" s="3">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2">
-        <v>60</v>
-      </c>
-      <c r="G58" s="7">
-        <v>700000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6</v>
-      </c>
+    <row r="58" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P58" s="9">
         <v>483</v>
       </c>
@@ -44512,25 +44162,7 @@
         <v>0.2287300360836737</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C59" s="2">
-        <v>28</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E59" s="3">
-        <v>13</v>
-      </c>
-      <c r="F59" s="2">
-        <v>61</v>
-      </c>
-      <c r="G59" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5</v>
-      </c>
+    <row r="59" spans="15:21" x14ac:dyDescent="0.25">
       <c r="P59" s="9">
         <v>813</v>
       </c>
@@ -44542,25 +44174,7 @@
         <v>0.16051944993742417</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C60" s="2">
-        <v>29</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>62</v>
-      </c>
-      <c r="G60" s="7">
-        <v>1200000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4</v>
-      </c>
+    <row r="60" spans="15:21" x14ac:dyDescent="0.25">
       <c r="S60" s="9" t="s">
         <v>238</v>
       </c>
@@ -44569,88 +44183,25 @@
         <v>0.21440104054545661</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="2">
-        <v>30</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2">
-        <v>63</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3</v>
-      </c>
+    <row r="61" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T61" s="9">
         <f t="shared" si="20"/>
         <v>0.22974057578537055</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C62" s="2">
-        <v>31</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>64</v>
-      </c>
-      <c r="G62" s="7">
-        <v>1400000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2</v>
-      </c>
+    <row r="62" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T62" s="9">
         <f t="shared" si="20"/>
         <v>0.16357655345371747</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C63" s="2">
-        <v>32</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>65</v>
-      </c>
-      <c r="G63" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
+    <row r="63" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T63" s="9">
         <f t="shared" si="20"/>
         <v>0.14345967008905064</v>
       </c>
     </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C64" s="2">
-        <v>33</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="3">
-        <v>2</v>
-      </c>
+    <row r="64" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T64" s="9">
         <f t="shared" si="20"/>
         <v>0.21985956032972781</v>
@@ -44668,7 +44219,7 @@
       </c>
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -44697,31 +44248,31 @@
       </c>
     </row>
     <row r="70" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>300</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="19">
         <v>2022</v>
       </c>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="19">
         <v>7</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K70" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L70" s="20" t="s">
+      <c r="L70" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="21">
+      <c r="M70" s="20">
         <v>450000</v>
       </c>
       <c r="N70" s="9">
@@ -44750,31 +44301,31 @@
       </c>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>486</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="19">
         <v>2022</v>
       </c>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="19">
         <v>7</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L71" s="20" t="s">
+      <c r="L71" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M71" s="21">
+      <c r="M71" s="20">
         <v>450000</v>
       </c>
       <c r="N71" s="9">
@@ -44983,7 +44534,7 @@
       </c>
     </row>
     <row r="80" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="N80" s="20" t="s">
+      <c r="N80" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O80" s="10" t="s">
@@ -45066,7 +44617,7 @@
         <v>7.0710678118654752E-2</v>
       </c>
       <c r="T82" s="9">
-        <f t="shared" ref="T82:T83" si="24">T79*$L$34</f>
+        <f t="shared" ref="T82" si="24">T79*$L$34</f>
         <v>7.0710678118654752E-2</v>
       </c>
       <c r="U82" s="9">
@@ -45104,12 +44655,814 @@
         <v>0.42426406871192845</v>
       </c>
     </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C119" s="23"/>
+      <c r="D119" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+      <c r="D121" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+      <c r="D122" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+      <c r="D123" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+      <c r="D124" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C125" s="2"/>
+      <c r="D125" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="D126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C129" s="23"/>
+      <c r="D129" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="23"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+      <c r="D131" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G131" s="3">
+        <v>8</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G132" s="3">
+        <v>9</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+      <c r="D133" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E133" s="3">
+        <v>3</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G133" s="3">
+        <v>10</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C134" s="2"/>
+      <c r="D134" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E134" s="3">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G134" s="3">
+        <v>11</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+      <c r="D135" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E135" s="3">
+        <v>5</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G135" s="3">
+        <v>12</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C136" s="2"/>
+      <c r="D136" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E136" s="3">
+        <v>6</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G136" s="3">
+        <v>13</v>
+      </c>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C137" s="23"/>
+      <c r="D137" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E137" s="3">
+        <v>7</v>
+      </c>
+      <c r="H137" s="23"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C138" s="2"/>
+      <c r="D138" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="G138" s="22"/>
+      <c r="H138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="22"/>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C140" s="2"/>
+      <c r="D140" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C141" s="23"/>
+      <c r="D141" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2</v>
+      </c>
+      <c r="H141" s="23"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C142" s="2"/>
+      <c r="D142" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="3">
+        <v>3</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+      <c r="D143" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="G143" s="22"/>
+      <c r="H143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C145" s="2"/>
+      <c r="D145" s="3">
+        <v>5</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D146" s="3">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G146" s="3">
+        <v>2</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C147" s="23"/>
+      <c r="D147" s="3">
+        <v>8</v>
+      </c>
+      <c r="E147" s="3">
+        <v>3</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G147" s="3">
+        <v>3</v>
+      </c>
+      <c r="H147" s="23"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+      <c r="D148" s="3">
+        <v>16</v>
+      </c>
+      <c r="E148" s="3">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148" s="3">
+        <v>4</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C149" s="2"/>
+      <c r="F149" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G149" s="3">
+        <v>5</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+      <c r="D150" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="G150" s="22"/>
+      <c r="H150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="3"/>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C152" s="2"/>
+      <c r="D152" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="7">
+        <v>300000</v>
+      </c>
+      <c r="G152" s="3">
+        <v>14</v>
+      </c>
+      <c r="H152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="3"/>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C153" s="2"/>
+      <c r="D153" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="7">
+        <v>350000</v>
+      </c>
+      <c r="G153" s="3">
+        <v>13</v>
+      </c>
+      <c r="H153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+      <c r="D154" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="3">
+        <v>3</v>
+      </c>
+      <c r="F154" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G154" s="3">
+        <v>12</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C155" s="2"/>
+      <c r="D155" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="3">
+        <v>4</v>
+      </c>
+      <c r="F155" s="7">
+        <v>450000</v>
+      </c>
+      <c r="G155" s="3">
+        <v>11</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="3"/>
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D156" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="3">
+        <v>5</v>
+      </c>
+      <c r="F156" s="7">
+        <v>500000</v>
+      </c>
+      <c r="G156" s="3">
+        <v>10</v>
+      </c>
+      <c r="H156" s="3"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D157" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="3">
+        <v>6</v>
+      </c>
+      <c r="F157" s="7">
+        <v>550000</v>
+      </c>
+      <c r="G157" s="3">
+        <v>9</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D158" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E158" s="3">
+        <v>7</v>
+      </c>
+      <c r="F158" s="7">
+        <v>600000</v>
+      </c>
+      <c r="G158" s="3">
+        <v>8</v>
+      </c>
+      <c r="H158" s="3"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D159" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E159" s="3">
+        <v>8</v>
+      </c>
+      <c r="F159" s="7">
+        <v>650000</v>
+      </c>
+      <c r="G159" s="3">
+        <v>7</v>
+      </c>
+      <c r="H159" s="3"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="3"/>
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F160" s="7">
+        <v>700000</v>
+      </c>
+      <c r="G160" s="3">
+        <v>6</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F161" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="G161" s="3">
+        <v>5</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F162" s="7">
+        <v>1200000</v>
+      </c>
+      <c r="G162" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F163" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="G163" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F164" s="7">
+        <v>1400000</v>
+      </c>
+      <c r="G164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F165" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D32:D46">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="J127:M127"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="J145:K145"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M140:M144">
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G49">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="D121:D128">
+    <cfRule type="duplicateValues" dxfId="10" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L140:L144">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121:F127">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145:G149">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145:F149">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
